--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
@@ -5143,6 +5143,114 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5179,9 +5287,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5209,112 +5314,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5841,20 +5841,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="2276475"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1952625" y="2447925"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5872,27 +5872,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5900,27 +5888,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5936,20 +5912,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1743075" y="1600200"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1952625" y="2428874"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5967,27 +5943,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5995,27 +5959,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6032,19 +5984,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="1914525"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="1943100"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6062,27 +6014,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6090,27 +6030,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7649,19 +7577,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2333625</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5133975" y="3486150"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4733925" y="4695826"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7679,27 +7607,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7707,27 +7623,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7739,19 +7643,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="12773025"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="13134975"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7769,27 +7673,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7797,27 +7689,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8009,19 +7889,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="4743450"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5829299" y="5410199"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8039,27 +7919,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8067,27 +7935,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8099,19 +7955,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>561975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5695950" y="18135600"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5410200" y="18421350"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8129,27 +7985,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8157,27 +8001,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8189,19 +8021,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:colOff>1066799</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>895350</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="26898600"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5800724" y="26279475"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8219,27 +8051,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8247,27 +8067,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8548,20 +8356,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5705475" y="2571750"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5334000" y="3162300"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8579,27 +8387,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8607,27 +8403,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -9546,57 +9330,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="246" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="249" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="277" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="255" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="286" t="s">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="264" t="s">
         <v>314</v>
       </c>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="288"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
+      <c r="W1" s="265"/>
+      <c r="X1" s="265"/>
+      <c r="Y1" s="265"/>
+      <c r="Z1" s="266"/>
+      <c r="AA1" s="246" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="295" t="str">
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="273" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="297"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="240">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -9604,53 +9388,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="246" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="271" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="249" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="281"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
-      <c r="X2" s="290"/>
-      <c r="Y2" s="290"/>
-      <c r="Z2" s="291"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="268"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="246" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="274" t="str">
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="276"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="240" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -9658,45 +9442,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="249" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="297"/>
-      <c r="AG3" s="262"/>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="270"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271"/>
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="272"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="274"/>
+      <c r="AE3" s="274"/>
+      <c r="AF3" s="275"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -9733,97 +9517,97 @@
       <c r="A7" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="265" t="s">
+      <c r="B7" s="243" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="265" t="s">
+      <c r="C7" s="244"/>
+      <c r="D7" s="243" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="265" t="s">
+      <c r="E7" s="245"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="265" t="s">
+      <c r="H7" s="245"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="243" t="s">
         <v>302</v>
       </c>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="265" t="s">
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="245"/>
+      <c r="O7" s="245"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="243" t="s">
         <v>303</v>
       </c>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="267"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="265" t="s">
+      <c r="R7" s="245"/>
+      <c r="S7" s="245"/>
+      <c r="T7" s="245"/>
+      <c r="U7" s="245"/>
+      <c r="V7" s="245"/>
+      <c r="W7" s="245"/>
+      <c r="X7" s="245"/>
+      <c r="Y7" s="245"/>
+      <c r="Z7" s="245"/>
+      <c r="AA7" s="245"/>
+      <c r="AB7" s="245"/>
+      <c r="AC7" s="245"/>
+      <c r="AD7" s="245"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="243" t="s">
         <v>304</v>
       </c>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="266"/>
+      <c r="AG7" s="245"/>
+      <c r="AH7" s="245"/>
+      <c r="AI7" s="244"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="288" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="255">
+      <c r="C8" s="289"/>
+      <c r="D8" s="290">
         <v>43336</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="253" t="s">
+      <c r="E8" s="291"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="288" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="258"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="259" t="s">
+      <c r="H8" s="293"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="294" t="s">
         <v>311</v>
       </c>
-      <c r="K8" s="260"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="259" t="s">
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="295"/>
+      <c r="N8" s="295"/>
+      <c r="O8" s="295"/>
+      <c r="P8" s="296"/>
+      <c r="Q8" s="294" t="s">
         <v>312</v>
       </c>
-      <c r="R8" s="260"/>
-      <c r="S8" s="260"/>
-      <c r="T8" s="260"/>
-      <c r="U8" s="260"/>
-      <c r="V8" s="260"/>
-      <c r="W8" s="260"/>
-      <c r="X8" s="260"/>
-      <c r="Y8" s="260"/>
-      <c r="Z8" s="260"/>
-      <c r="AA8" s="260"/>
-      <c r="AB8" s="260"/>
-      <c r="AC8" s="260"/>
-      <c r="AD8" s="260"/>
-      <c r="AE8" s="261"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="295"/>
+      <c r="U8" s="295"/>
+      <c r="V8" s="295"/>
+      <c r="W8" s="295"/>
+      <c r="X8" s="295"/>
+      <c r="Y8" s="295"/>
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="295"/>
+      <c r="AB8" s="295"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="295"/>
+      <c r="AE8" s="296"/>
       <c r="AF8" s="69" t="s">
         <v>313</v>
       </c>
@@ -9833,934 +9617,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="247"/>
-      <c r="N9" s="247"/>
-      <c r="O9" s="247"/>
-      <c r="P9" s="248"/>
-      <c r="Q9" s="249"/>
-      <c r="R9" s="250"/>
-      <c r="S9" s="250"/>
-      <c r="T9" s="250"/>
-      <c r="U9" s="250"/>
-      <c r="V9" s="250"/>
-      <c r="W9" s="250"/>
-      <c r="X9" s="250"/>
-      <c r="Y9" s="250"/>
-      <c r="Z9" s="250"/>
-      <c r="AA9" s="250"/>
-      <c r="AB9" s="250"/>
-      <c r="AC9" s="250"/>
-      <c r="AD9" s="250"/>
-      <c r="AE9" s="251"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="247"/>
-      <c r="AH9" s="247"/>
-      <c r="AI9" s="248"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="284"/>
+      <c r="Q9" s="285"/>
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="286"/>
+      <c r="V9" s="286"/>
+      <c r="W9" s="286"/>
+      <c r="X9" s="286"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="287"/>
+      <c r="AF9" s="282"/>
+      <c r="AG9" s="283"/>
+      <c r="AH9" s="283"/>
+      <c r="AI9" s="284"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="245"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="247"/>
-      <c r="N10" s="247"/>
-      <c r="O10" s="247"/>
-      <c r="P10" s="248"/>
-      <c r="Q10" s="249"/>
-      <c r="R10" s="250"/>
-      <c r="S10" s="250"/>
-      <c r="T10" s="250"/>
-      <c r="U10" s="250"/>
-      <c r="V10" s="250"/>
-      <c r="W10" s="250"/>
-      <c r="X10" s="250"/>
-      <c r="Y10" s="250"/>
-      <c r="Z10" s="250"/>
-      <c r="AA10" s="250"/>
-      <c r="AB10" s="250"/>
-      <c r="AC10" s="250"/>
-      <c r="AD10" s="250"/>
-      <c r="AE10" s="251"/>
-      <c r="AF10" s="246"/>
-      <c r="AG10" s="247"/>
-      <c r="AH10" s="247"/>
-      <c r="AI10" s="248"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="282"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="283"/>
+      <c r="P10" s="284"/>
+      <c r="Q10" s="285"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="286"/>
+      <c r="T10" s="286"/>
+      <c r="U10" s="286"/>
+      <c r="V10" s="286"/>
+      <c r="W10" s="286"/>
+      <c r="X10" s="286"/>
+      <c r="Y10" s="286"/>
+      <c r="Z10" s="286"/>
+      <c r="AA10" s="286"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="286"/>
+      <c r="AD10" s="286"/>
+      <c r="AE10" s="287"/>
+      <c r="AF10" s="282"/>
+      <c r="AG10" s="283"/>
+      <c r="AH10" s="283"/>
+      <c r="AI10" s="284"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="247"/>
-      <c r="O11" s="247"/>
-      <c r="P11" s="248"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="250"/>
-      <c r="Y11" s="250"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="250"/>
-      <c r="AB11" s="250"/>
-      <c r="AC11" s="250"/>
-      <c r="AD11" s="250"/>
-      <c r="AE11" s="251"/>
-      <c r="AF11" s="246"/>
-      <c r="AG11" s="247"/>
-      <c r="AH11" s="247"/>
-      <c r="AI11" s="248"/>
+      <c r="B11" s="276"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="277"/>
+      <c r="J11" s="282"/>
+      <c r="K11" s="283"/>
+      <c r="L11" s="283"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="283"/>
+      <c r="P11" s="284"/>
+      <c r="Q11" s="285"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="286"/>
+      <c r="V11" s="286"/>
+      <c r="W11" s="286"/>
+      <c r="X11" s="286"/>
+      <c r="Y11" s="286"/>
+      <c r="Z11" s="286"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="286"/>
+      <c r="AC11" s="286"/>
+      <c r="AD11" s="286"/>
+      <c r="AE11" s="287"/>
+      <c r="AF11" s="282"/>
+      <c r="AG11" s="283"/>
+      <c r="AH11" s="283"/>
+      <c r="AI11" s="284"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="245"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="247"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="248"/>
-      <c r="Q12" s="249"/>
-      <c r="R12" s="250"/>
-      <c r="S12" s="250"/>
-      <c r="T12" s="250"/>
-      <c r="U12" s="250"/>
-      <c r="V12" s="250"/>
-      <c r="W12" s="250"/>
-      <c r="X12" s="250"/>
-      <c r="Y12" s="250"/>
-      <c r="Z12" s="250"/>
-      <c r="AA12" s="250"/>
-      <c r="AB12" s="250"/>
-      <c r="AC12" s="250"/>
-      <c r="AD12" s="250"/>
-      <c r="AE12" s="251"/>
-      <c r="AF12" s="246"/>
-      <c r="AG12" s="247"/>
-      <c r="AH12" s="247"/>
-      <c r="AI12" s="248"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="281"/>
+      <c r="I12" s="277"/>
+      <c r="J12" s="282"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="284"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="286"/>
+      <c r="S12" s="286"/>
+      <c r="T12" s="286"/>
+      <c r="U12" s="286"/>
+      <c r="V12" s="286"/>
+      <c r="W12" s="286"/>
+      <c r="X12" s="286"/>
+      <c r="Y12" s="286"/>
+      <c r="Z12" s="286"/>
+      <c r="AA12" s="286"/>
+      <c r="AB12" s="286"/>
+      <c r="AC12" s="286"/>
+      <c r="AD12" s="286"/>
+      <c r="AE12" s="287"/>
+      <c r="AF12" s="282"/>
+      <c r="AG12" s="283"/>
+      <c r="AH12" s="283"/>
+      <c r="AI12" s="284"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="245"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="247"/>
-      <c r="N13" s="247"/>
-      <c r="O13" s="247"/>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="249"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="250"/>
-      <c r="T13" s="250"/>
-      <c r="U13" s="250"/>
-      <c r="V13" s="250"/>
-      <c r="W13" s="250"/>
-      <c r="X13" s="250"/>
-      <c r="Y13" s="250"/>
-      <c r="Z13" s="250"/>
-      <c r="AA13" s="250"/>
-      <c r="AB13" s="250"/>
-      <c r="AC13" s="250"/>
-      <c r="AD13" s="250"/>
-      <c r="AE13" s="251"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="247"/>
-      <c r="AH13" s="247"/>
-      <c r="AI13" s="248"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="281"/>
+      <c r="I13" s="277"/>
+      <c r="J13" s="282"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="283"/>
+      <c r="M13" s="283"/>
+      <c r="N13" s="283"/>
+      <c r="O13" s="283"/>
+      <c r="P13" s="284"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="286"/>
+      <c r="S13" s="286"/>
+      <c r="T13" s="286"/>
+      <c r="U13" s="286"/>
+      <c r="V13" s="286"/>
+      <c r="W13" s="286"/>
+      <c r="X13" s="286"/>
+      <c r="Y13" s="286"/>
+      <c r="Z13" s="286"/>
+      <c r="AA13" s="286"/>
+      <c r="AB13" s="286"/>
+      <c r="AC13" s="286"/>
+      <c r="AD13" s="286"/>
+      <c r="AE13" s="287"/>
+      <c r="AF13" s="282"/>
+      <c r="AG13" s="283"/>
+      <c r="AH13" s="283"/>
+      <c r="AI13" s="284"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="245"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="247"/>
-      <c r="N14" s="247"/>
-      <c r="O14" s="247"/>
-      <c r="P14" s="248"/>
-      <c r="Q14" s="249"/>
-      <c r="R14" s="250"/>
-      <c r="S14" s="250"/>
-      <c r="T14" s="250"/>
-      <c r="U14" s="250"/>
-      <c r="V14" s="250"/>
-      <c r="W14" s="250"/>
-      <c r="X14" s="250"/>
-      <c r="Y14" s="250"/>
-      <c r="Z14" s="250"/>
-      <c r="AA14" s="250"/>
-      <c r="AB14" s="250"/>
-      <c r="AC14" s="250"/>
-      <c r="AD14" s="250"/>
-      <c r="AE14" s="251"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="247"/>
-      <c r="AH14" s="247"/>
-      <c r="AI14" s="248"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="276"/>
+      <c r="H14" s="281"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="282"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
+      <c r="M14" s="283"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="283"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="286"/>
+      <c r="S14" s="286"/>
+      <c r="T14" s="286"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="286"/>
+      <c r="W14" s="286"/>
+      <c r="X14" s="286"/>
+      <c r="Y14" s="286"/>
+      <c r="Z14" s="286"/>
+      <c r="AA14" s="286"/>
+      <c r="AB14" s="286"/>
+      <c r="AC14" s="286"/>
+      <c r="AD14" s="286"/>
+      <c r="AE14" s="287"/>
+      <c r="AF14" s="282"/>
+      <c r="AG14" s="283"/>
+      <c r="AH14" s="283"/>
+      <c r="AI14" s="284"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
-      <c r="N15" s="247"/>
-      <c r="O15" s="247"/>
-      <c r="P15" s="248"/>
-      <c r="Q15" s="249"/>
-      <c r="R15" s="250"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="250"/>
-      <c r="U15" s="250"/>
-      <c r="V15" s="250"/>
-      <c r="W15" s="250"/>
-      <c r="X15" s="250"/>
-      <c r="Y15" s="250"/>
-      <c r="Z15" s="250"/>
-      <c r="AA15" s="250"/>
-      <c r="AB15" s="250"/>
-      <c r="AC15" s="250"/>
-      <c r="AD15" s="250"/>
-      <c r="AE15" s="251"/>
-      <c r="AF15" s="246"/>
-      <c r="AG15" s="247"/>
-      <c r="AH15" s="247"/>
-      <c r="AI15" s="248"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="281"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="282"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="283"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="283"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="286"/>
+      <c r="S15" s="286"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="286"/>
+      <c r="V15" s="286"/>
+      <c r="W15" s="286"/>
+      <c r="X15" s="286"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="286"/>
+      <c r="AA15" s="286"/>
+      <c r="AB15" s="286"/>
+      <c r="AC15" s="286"/>
+      <c r="AD15" s="286"/>
+      <c r="AE15" s="287"/>
+      <c r="AF15" s="282"/>
+      <c r="AG15" s="283"/>
+      <c r="AH15" s="283"/>
+      <c r="AI15" s="284"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="247"/>
-      <c r="N16" s="247"/>
-      <c r="O16" s="247"/>
-      <c r="P16" s="248"/>
-      <c r="Q16" s="249"/>
-      <c r="R16" s="250"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="250"/>
-      <c r="W16" s="250"/>
-      <c r="X16" s="250"/>
-      <c r="Y16" s="250"/>
-      <c r="Z16" s="250"/>
-      <c r="AA16" s="250"/>
-      <c r="AB16" s="250"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="250"/>
-      <c r="AE16" s="251"/>
-      <c r="AF16" s="246"/>
-      <c r="AG16" s="247"/>
-      <c r="AH16" s="247"/>
-      <c r="AI16" s="248"/>
+      <c r="B16" s="276"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="282"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="283"/>
+      <c r="M16" s="283"/>
+      <c r="N16" s="283"/>
+      <c r="O16" s="283"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="285"/>
+      <c r="R16" s="286"/>
+      <c r="S16" s="286"/>
+      <c r="T16" s="286"/>
+      <c r="U16" s="286"/>
+      <c r="V16" s="286"/>
+      <c r="W16" s="286"/>
+      <c r="X16" s="286"/>
+      <c r="Y16" s="286"/>
+      <c r="Z16" s="286"/>
+      <c r="AA16" s="286"/>
+      <c r="AB16" s="286"/>
+      <c r="AC16" s="286"/>
+      <c r="AD16" s="286"/>
+      <c r="AE16" s="287"/>
+      <c r="AF16" s="282"/>
+      <c r="AG16" s="283"/>
+      <c r="AH16" s="283"/>
+      <c r="AI16" s="284"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="245"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
-      <c r="N17" s="247"/>
-      <c r="O17" s="247"/>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="249"/>
-      <c r="R17" s="250"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="250"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="250"/>
-      <c r="X17" s="250"/>
-      <c r="Y17" s="250"/>
-      <c r="Z17" s="250"/>
-      <c r="AA17" s="250"/>
-      <c r="AB17" s="250"/>
-      <c r="AC17" s="250"/>
-      <c r="AD17" s="250"/>
-      <c r="AE17" s="251"/>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="247"/>
-      <c r="AH17" s="247"/>
-      <c r="AI17" s="248"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="276"/>
+      <c r="H17" s="281"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="282"/>
+      <c r="K17" s="283"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="283"/>
+      <c r="N17" s="283"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="285"/>
+      <c r="R17" s="286"/>
+      <c r="S17" s="286"/>
+      <c r="T17" s="286"/>
+      <c r="U17" s="286"/>
+      <c r="V17" s="286"/>
+      <c r="W17" s="286"/>
+      <c r="X17" s="286"/>
+      <c r="Y17" s="286"/>
+      <c r="Z17" s="286"/>
+      <c r="AA17" s="286"/>
+      <c r="AB17" s="286"/>
+      <c r="AC17" s="286"/>
+      <c r="AD17" s="286"/>
+      <c r="AE17" s="287"/>
+      <c r="AF17" s="282"/>
+      <c r="AG17" s="283"/>
+      <c r="AH17" s="283"/>
+      <c r="AI17" s="284"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="247"/>
-      <c r="O18" s="247"/>
-      <c r="P18" s="248"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="250"/>
-      <c r="S18" s="250"/>
-      <c r="T18" s="250"/>
-      <c r="U18" s="250"/>
-      <c r="V18" s="250"/>
-      <c r="W18" s="250"/>
-      <c r="X18" s="250"/>
-      <c r="Y18" s="250"/>
-      <c r="Z18" s="250"/>
-      <c r="AA18" s="250"/>
-      <c r="AB18" s="250"/>
-      <c r="AC18" s="250"/>
-      <c r="AD18" s="250"/>
-      <c r="AE18" s="251"/>
-      <c r="AF18" s="246"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="247"/>
-      <c r="AI18" s="248"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="281"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="282"/>
+      <c r="K18" s="283"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="283"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="283"/>
+      <c r="P18" s="284"/>
+      <c r="Q18" s="285"/>
+      <c r="R18" s="286"/>
+      <c r="S18" s="286"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="286"/>
+      <c r="V18" s="286"/>
+      <c r="W18" s="286"/>
+      <c r="X18" s="286"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="286"/>
+      <c r="AA18" s="286"/>
+      <c r="AB18" s="286"/>
+      <c r="AC18" s="286"/>
+      <c r="AD18" s="286"/>
+      <c r="AE18" s="287"/>
+      <c r="AF18" s="282"/>
+      <c r="AG18" s="283"/>
+      <c r="AH18" s="283"/>
+      <c r="AI18" s="284"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="247"/>
-      <c r="O19" s="247"/>
-      <c r="P19" s="248"/>
-      <c r="Q19" s="249"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="251"/>
-      <c r="AF19" s="246"/>
-      <c r="AG19" s="247"/>
-      <c r="AH19" s="247"/>
-      <c r="AI19" s="248"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="276"/>
+      <c r="H19" s="281"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="283"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="283"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="283"/>
+      <c r="P19" s="284"/>
+      <c r="Q19" s="285"/>
+      <c r="R19" s="286"/>
+      <c r="S19" s="286"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="286"/>
+      <c r="V19" s="286"/>
+      <c r="W19" s="286"/>
+      <c r="X19" s="286"/>
+      <c r="Y19" s="286"/>
+      <c r="Z19" s="286"/>
+      <c r="AA19" s="286"/>
+      <c r="AB19" s="286"/>
+      <c r="AC19" s="286"/>
+      <c r="AD19" s="286"/>
+      <c r="AE19" s="287"/>
+      <c r="AF19" s="282"/>
+      <c r="AG19" s="283"/>
+      <c r="AH19" s="283"/>
+      <c r="AI19" s="284"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="247"/>
-      <c r="O20" s="247"/>
-      <c r="P20" s="248"/>
-      <c r="Q20" s="249"/>
-      <c r="R20" s="250"/>
-      <c r="S20" s="250"/>
-      <c r="T20" s="250"/>
-      <c r="U20" s="250"/>
-      <c r="V20" s="250"/>
-      <c r="W20" s="250"/>
-      <c r="X20" s="250"/>
-      <c r="Y20" s="250"/>
-      <c r="Z20" s="250"/>
-      <c r="AA20" s="250"/>
-      <c r="AB20" s="250"/>
-      <c r="AC20" s="250"/>
-      <c r="AD20" s="250"/>
-      <c r="AE20" s="251"/>
-      <c r="AF20" s="246"/>
-      <c r="AG20" s="247"/>
-      <c r="AH20" s="247"/>
-      <c r="AI20" s="248"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="281"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="282"/>
+      <c r="K20" s="283"/>
+      <c r="L20" s="283"/>
+      <c r="M20" s="283"/>
+      <c r="N20" s="283"/>
+      <c r="O20" s="283"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="285"/>
+      <c r="R20" s="286"/>
+      <c r="S20" s="286"/>
+      <c r="T20" s="286"/>
+      <c r="U20" s="286"/>
+      <c r="V20" s="286"/>
+      <c r="W20" s="286"/>
+      <c r="X20" s="286"/>
+      <c r="Y20" s="286"/>
+      <c r="Z20" s="286"/>
+      <c r="AA20" s="286"/>
+      <c r="AB20" s="286"/>
+      <c r="AC20" s="286"/>
+      <c r="AD20" s="286"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="282"/>
+      <c r="AG20" s="283"/>
+      <c r="AH20" s="283"/>
+      <c r="AI20" s="284"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="240"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="245"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="246"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="247"/>
-      <c r="O21" s="247"/>
-      <c r="P21" s="248"/>
-      <c r="Q21" s="249"/>
-      <c r="R21" s="250"/>
-      <c r="S21" s="250"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="250"/>
-      <c r="W21" s="250"/>
-      <c r="X21" s="250"/>
-      <c r="Y21" s="250"/>
-      <c r="Z21" s="250"/>
-      <c r="AA21" s="250"/>
-      <c r="AB21" s="250"/>
-      <c r="AC21" s="250"/>
-      <c r="AD21" s="250"/>
-      <c r="AE21" s="251"/>
-      <c r="AF21" s="246"/>
-      <c r="AG21" s="247"/>
-      <c r="AH21" s="247"/>
-      <c r="AI21" s="248"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="282"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="284"/>
+      <c r="Q21" s="285"/>
+      <c r="R21" s="286"/>
+      <c r="S21" s="286"/>
+      <c r="T21" s="286"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="286"/>
+      <c r="W21" s="286"/>
+      <c r="X21" s="286"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="286"/>
+      <c r="AA21" s="286"/>
+      <c r="AB21" s="286"/>
+      <c r="AC21" s="286"/>
+      <c r="AD21" s="286"/>
+      <c r="AE21" s="287"/>
+      <c r="AF21" s="282"/>
+      <c r="AG21" s="283"/>
+      <c r="AH21" s="283"/>
+      <c r="AI21" s="284"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="246"/>
-      <c r="K22" s="247"/>
-      <c r="L22" s="247"/>
-      <c r="M22" s="247"/>
-      <c r="N22" s="247"/>
-      <c r="O22" s="247"/>
-      <c r="P22" s="248"/>
-      <c r="Q22" s="249"/>
-      <c r="R22" s="250"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="250"/>
-      <c r="W22" s="250"/>
-      <c r="X22" s="250"/>
-      <c r="Y22" s="250"/>
-      <c r="Z22" s="250"/>
-      <c r="AA22" s="250"/>
-      <c r="AB22" s="250"/>
-      <c r="AC22" s="250"/>
-      <c r="AD22" s="250"/>
-      <c r="AE22" s="251"/>
-      <c r="AF22" s="246"/>
-      <c r="AG22" s="247"/>
-      <c r="AH22" s="247"/>
-      <c r="AI22" s="248"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="281"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="282"/>
+      <c r="K22" s="283"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="284"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="286"/>
+      <c r="S22" s="286"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="286"/>
+      <c r="V22" s="286"/>
+      <c r="W22" s="286"/>
+      <c r="X22" s="286"/>
+      <c r="Y22" s="286"/>
+      <c r="Z22" s="286"/>
+      <c r="AA22" s="286"/>
+      <c r="AB22" s="286"/>
+      <c r="AC22" s="286"/>
+      <c r="AD22" s="286"/>
+      <c r="AE22" s="287"/>
+      <c r="AF22" s="282"/>
+      <c r="AG22" s="283"/>
+      <c r="AH22" s="283"/>
+      <c r="AI22" s="284"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="240"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="247"/>
-      <c r="O23" s="247"/>
-      <c r="P23" s="248"/>
-      <c r="Q23" s="249"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="250"/>
-      <c r="W23" s="250"/>
-      <c r="X23" s="250"/>
-      <c r="Y23" s="250"/>
-      <c r="Z23" s="250"/>
-      <c r="AA23" s="250"/>
-      <c r="AB23" s="250"/>
-      <c r="AC23" s="250"/>
-      <c r="AD23" s="250"/>
-      <c r="AE23" s="251"/>
-      <c r="AF23" s="246"/>
-      <c r="AG23" s="247"/>
-      <c r="AH23" s="247"/>
-      <c r="AI23" s="248"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="282"/>
+      <c r="K23" s="283"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="283"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="283"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="286"/>
+      <c r="V23" s="286"/>
+      <c r="W23" s="286"/>
+      <c r="X23" s="286"/>
+      <c r="Y23" s="286"/>
+      <c r="Z23" s="286"/>
+      <c r="AA23" s="286"/>
+      <c r="AB23" s="286"/>
+      <c r="AC23" s="286"/>
+      <c r="AD23" s="286"/>
+      <c r="AE23" s="287"/>
+      <c r="AF23" s="282"/>
+      <c r="AG23" s="283"/>
+      <c r="AH23" s="283"/>
+      <c r="AI23" s="284"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="247"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="249"/>
-      <c r="R24" s="250"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
-      <c r="X24" s="250"/>
-      <c r="Y24" s="250"/>
-      <c r="Z24" s="250"/>
-      <c r="AA24" s="250"/>
-      <c r="AB24" s="250"/>
-      <c r="AC24" s="250"/>
-      <c r="AD24" s="250"/>
-      <c r="AE24" s="251"/>
-      <c r="AF24" s="246"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="247"/>
-      <c r="AI24" s="248"/>
+      <c r="B24" s="276"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="281"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="282"/>
+      <c r="K24" s="283"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="283"/>
+      <c r="O24" s="283"/>
+      <c r="P24" s="284"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="286"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="286"/>
+      <c r="X24" s="286"/>
+      <c r="Y24" s="286"/>
+      <c r="Z24" s="286"/>
+      <c r="AA24" s="286"/>
+      <c r="AB24" s="286"/>
+      <c r="AC24" s="286"/>
+      <c r="AD24" s="286"/>
+      <c r="AE24" s="287"/>
+      <c r="AF24" s="282"/>
+      <c r="AG24" s="283"/>
+      <c r="AH24" s="283"/>
+      <c r="AI24" s="284"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="247"/>
-      <c r="N25" s="247"/>
-      <c r="O25" s="247"/>
-      <c r="P25" s="248"/>
-      <c r="Q25" s="249"/>
-      <c r="R25" s="250"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="250"/>
-      <c r="W25" s="250"/>
-      <c r="X25" s="250"/>
-      <c r="Y25" s="250"/>
-      <c r="Z25" s="250"/>
-      <c r="AA25" s="250"/>
-      <c r="AB25" s="250"/>
-      <c r="AC25" s="250"/>
-      <c r="AD25" s="250"/>
-      <c r="AE25" s="251"/>
-      <c r="AF25" s="246"/>
-      <c r="AG25" s="247"/>
-      <c r="AH25" s="247"/>
-      <c r="AI25" s="248"/>
+      <c r="B25" s="276"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="282"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="283"/>
+      <c r="M25" s="283"/>
+      <c r="N25" s="283"/>
+      <c r="O25" s="283"/>
+      <c r="P25" s="284"/>
+      <c r="Q25" s="285"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="287"/>
+      <c r="AF25" s="282"/>
+      <c r="AG25" s="283"/>
+      <c r="AH25" s="283"/>
+      <c r="AI25" s="284"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="247"/>
-      <c r="P26" s="248"/>
-      <c r="Q26" s="249"/>
-      <c r="R26" s="250"/>
-      <c r="S26" s="250"/>
-      <c r="T26" s="250"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="250"/>
-      <c r="W26" s="250"/>
-      <c r="X26" s="250"/>
-      <c r="Y26" s="250"/>
-      <c r="Z26" s="250"/>
-      <c r="AA26" s="250"/>
-      <c r="AB26" s="250"/>
-      <c r="AC26" s="250"/>
-      <c r="AD26" s="250"/>
-      <c r="AE26" s="251"/>
-      <c r="AF26" s="246"/>
-      <c r="AG26" s="247"/>
-      <c r="AH26" s="247"/>
-      <c r="AI26" s="248"/>
+      <c r="B26" s="276"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="276"/>
+      <c r="H26" s="281"/>
+      <c r="I26" s="277"/>
+      <c r="J26" s="282"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="286"/>
+      <c r="S26" s="286"/>
+      <c r="T26" s="286"/>
+      <c r="U26" s="286"/>
+      <c r="V26" s="286"/>
+      <c r="W26" s="286"/>
+      <c r="X26" s="286"/>
+      <c r="Y26" s="286"/>
+      <c r="Z26" s="286"/>
+      <c r="AA26" s="286"/>
+      <c r="AB26" s="286"/>
+      <c r="AC26" s="286"/>
+      <c r="AD26" s="286"/>
+      <c r="AE26" s="287"/>
+      <c r="AF26" s="282"/>
+      <c r="AG26" s="283"/>
+      <c r="AH26" s="283"/>
+      <c r="AI26" s="284"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="240"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="246"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
-      <c r="N27" s="247"/>
-      <c r="O27" s="247"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="249"/>
-      <c r="R27" s="250"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="250"/>
-      <c r="Z27" s="250"/>
-      <c r="AA27" s="250"/>
-      <c r="AB27" s="250"/>
-      <c r="AC27" s="250"/>
-      <c r="AD27" s="250"/>
-      <c r="AE27" s="251"/>
-      <c r="AF27" s="246"/>
-      <c r="AG27" s="247"/>
-      <c r="AH27" s="247"/>
-      <c r="AI27" s="248"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="276"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="283"/>
+      <c r="L27" s="283"/>
+      <c r="M27" s="283"/>
+      <c r="N27" s="283"/>
+      <c r="O27" s="283"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="286"/>
+      <c r="S27" s="286"/>
+      <c r="T27" s="286"/>
+      <c r="U27" s="286"/>
+      <c r="V27" s="286"/>
+      <c r="W27" s="286"/>
+      <c r="X27" s="286"/>
+      <c r="Y27" s="286"/>
+      <c r="Z27" s="286"/>
+      <c r="AA27" s="286"/>
+      <c r="AB27" s="286"/>
+      <c r="AC27" s="286"/>
+      <c r="AD27" s="286"/>
+      <c r="AE27" s="287"/>
+      <c r="AF27" s="282"/>
+      <c r="AG27" s="283"/>
+      <c r="AH27" s="283"/>
+      <c r="AI27" s="284"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="247"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="247"/>
-      <c r="O28" s="247"/>
-      <c r="P28" s="248"/>
-      <c r="Q28" s="249"/>
-      <c r="R28" s="250"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="250"/>
-      <c r="U28" s="250"/>
-      <c r="V28" s="250"/>
-      <c r="W28" s="250"/>
-      <c r="X28" s="250"/>
-      <c r="Y28" s="250"/>
-      <c r="Z28" s="250"/>
-      <c r="AA28" s="250"/>
-      <c r="AB28" s="250"/>
-      <c r="AC28" s="250"/>
-      <c r="AD28" s="250"/>
-      <c r="AE28" s="251"/>
-      <c r="AF28" s="246"/>
-      <c r="AG28" s="247"/>
-      <c r="AH28" s="247"/>
-      <c r="AI28" s="248"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="281"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="282"/>
+      <c r="K28" s="283"/>
+      <c r="L28" s="283"/>
+      <c r="M28" s="283"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="284"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="286"/>
+      <c r="X28" s="286"/>
+      <c r="Y28" s="286"/>
+      <c r="Z28" s="286"/>
+      <c r="AA28" s="286"/>
+      <c r="AB28" s="286"/>
+      <c r="AC28" s="286"/>
+      <c r="AD28" s="286"/>
+      <c r="AE28" s="287"/>
+      <c r="AF28" s="282"/>
+      <c r="AG28" s="283"/>
+      <c r="AH28" s="283"/>
+      <c r="AI28" s="284"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="240"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="247"/>
-      <c r="N29" s="247"/>
-      <c r="O29" s="247"/>
-      <c r="P29" s="248"/>
-      <c r="Q29" s="249"/>
-      <c r="R29" s="250"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="250"/>
-      <c r="V29" s="250"/>
-      <c r="W29" s="250"/>
-      <c r="X29" s="250"/>
-      <c r="Y29" s="250"/>
-      <c r="Z29" s="250"/>
-      <c r="AA29" s="250"/>
-      <c r="AB29" s="250"/>
-      <c r="AC29" s="250"/>
-      <c r="AD29" s="250"/>
-      <c r="AE29" s="251"/>
-      <c r="AF29" s="246"/>
-      <c r="AG29" s="247"/>
-      <c r="AH29" s="247"/>
-      <c r="AI29" s="248"/>
+      <c r="B29" s="276"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="281"/>
+      <c r="I29" s="277"/>
+      <c r="J29" s="282"/>
+      <c r="K29" s="283"/>
+      <c r="L29" s="283"/>
+      <c r="M29" s="283"/>
+      <c r="N29" s="283"/>
+      <c r="O29" s="283"/>
+      <c r="P29" s="284"/>
+      <c r="Q29" s="285"/>
+      <c r="R29" s="286"/>
+      <c r="S29" s="286"/>
+      <c r="T29" s="286"/>
+      <c r="U29" s="286"/>
+      <c r="V29" s="286"/>
+      <c r="W29" s="286"/>
+      <c r="X29" s="286"/>
+      <c r="Y29" s="286"/>
+      <c r="Z29" s="286"/>
+      <c r="AA29" s="286"/>
+      <c r="AB29" s="286"/>
+      <c r="AC29" s="286"/>
+      <c r="AD29" s="286"/>
+      <c r="AE29" s="287"/>
+      <c r="AF29" s="282"/>
+      <c r="AG29" s="283"/>
+      <c r="AH29" s="283"/>
+      <c r="AI29" s="284"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="246"/>
-      <c r="K30" s="247"/>
-      <c r="L30" s="247"/>
-      <c r="M30" s="247"/>
-      <c r="N30" s="247"/>
-      <c r="O30" s="247"/>
-      <c r="P30" s="248"/>
-      <c r="Q30" s="249"/>
-      <c r="R30" s="250"/>
-      <c r="S30" s="250"/>
-      <c r="T30" s="250"/>
-      <c r="U30" s="250"/>
-      <c r="V30" s="250"/>
-      <c r="W30" s="250"/>
-      <c r="X30" s="250"/>
-      <c r="Y30" s="250"/>
-      <c r="Z30" s="250"/>
-      <c r="AA30" s="250"/>
-      <c r="AB30" s="250"/>
-      <c r="AC30" s="250"/>
-      <c r="AD30" s="250"/>
-      <c r="AE30" s="251"/>
-      <c r="AF30" s="246"/>
-      <c r="AG30" s="247"/>
-      <c r="AH30" s="247"/>
-      <c r="AI30" s="248"/>
+      <c r="B30" s="276"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="280"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="281"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="282"/>
+      <c r="K30" s="283"/>
+      <c r="L30" s="283"/>
+      <c r="M30" s="283"/>
+      <c r="N30" s="283"/>
+      <c r="O30" s="283"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="286"/>
+      <c r="S30" s="286"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="286"/>
+      <c r="V30" s="286"/>
+      <c r="W30" s="286"/>
+      <c r="X30" s="286"/>
+      <c r="Y30" s="286"/>
+      <c r="Z30" s="286"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="286"/>
+      <c r="AC30" s="286"/>
+      <c r="AD30" s="286"/>
+      <c r="AE30" s="287"/>
+      <c r="AF30" s="282"/>
+      <c r="AG30" s="283"/>
+      <c r="AH30" s="283"/>
+      <c r="AI30" s="284"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="240"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="246"/>
-      <c r="K31" s="247"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="247"/>
-      <c r="N31" s="247"/>
-      <c r="O31" s="247"/>
-      <c r="P31" s="248"/>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="250"/>
-      <c r="S31" s="250"/>
-      <c r="T31" s="250"/>
-      <c r="U31" s="250"/>
-      <c r="V31" s="250"/>
-      <c r="W31" s="250"/>
-      <c r="X31" s="250"/>
-      <c r="Y31" s="250"/>
-      <c r="Z31" s="250"/>
-      <c r="AA31" s="250"/>
-      <c r="AB31" s="250"/>
-      <c r="AC31" s="250"/>
-      <c r="AD31" s="250"/>
-      <c r="AE31" s="251"/>
-      <c r="AF31" s="246"/>
-      <c r="AG31" s="247"/>
-      <c r="AH31" s="247"/>
-      <c r="AI31" s="248"/>
+      <c r="B31" s="276"/>
+      <c r="C31" s="277"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="281"/>
+      <c r="I31" s="277"/>
+      <c r="J31" s="282"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="284"/>
+      <c r="Q31" s="285"/>
+      <c r="R31" s="286"/>
+      <c r="S31" s="286"/>
+      <c r="T31" s="286"/>
+      <c r="U31" s="286"/>
+      <c r="V31" s="286"/>
+      <c r="W31" s="286"/>
+      <c r="X31" s="286"/>
+      <c r="Y31" s="286"/>
+      <c r="Z31" s="286"/>
+      <c r="AA31" s="286"/>
+      <c r="AB31" s="286"/>
+      <c r="AC31" s="286"/>
+      <c r="AD31" s="286"/>
+      <c r="AE31" s="287"/>
+      <c r="AF31" s="282"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="284"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="240"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="247"/>
-      <c r="N32" s="247"/>
-      <c r="O32" s="247"/>
-      <c r="P32" s="248"/>
-      <c r="Q32" s="249"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="250"/>
-      <c r="U32" s="250"/>
-      <c r="V32" s="250"/>
-      <c r="W32" s="250"/>
-      <c r="X32" s="250"/>
-      <c r="Y32" s="250"/>
-      <c r="Z32" s="250"/>
-      <c r="AA32" s="250"/>
-      <c r="AB32" s="250"/>
-      <c r="AC32" s="250"/>
-      <c r="AD32" s="250"/>
-      <c r="AE32" s="251"/>
-      <c r="AF32" s="246"/>
-      <c r="AG32" s="247"/>
-      <c r="AH32" s="247"/>
-      <c r="AI32" s="248"/>
+      <c r="B32" s="276"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="280"/>
+      <c r="G32" s="276"/>
+      <c r="H32" s="281"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="297"/>
+      <c r="L32" s="283"/>
+      <c r="M32" s="283"/>
+      <c r="N32" s="283"/>
+      <c r="O32" s="283"/>
+      <c r="P32" s="284"/>
+      <c r="Q32" s="285"/>
+      <c r="R32" s="286"/>
+      <c r="S32" s="286"/>
+      <c r="T32" s="286"/>
+      <c r="U32" s="286"/>
+      <c r="V32" s="286"/>
+      <c r="W32" s="286"/>
+      <c r="X32" s="286"/>
+      <c r="Y32" s="286"/>
+      <c r="Z32" s="286"/>
+      <c r="AA32" s="286"/>
+      <c r="AB32" s="286"/>
+      <c r="AC32" s="286"/>
+      <c r="AD32" s="286"/>
+      <c r="AE32" s="287"/>
+      <c r="AF32" s="282"/>
+      <c r="AG32" s="283"/>
+      <c r="AH32" s="283"/>
+      <c r="AI32" s="284"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="240"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="246"/>
-      <c r="K33" s="247"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="247"/>
-      <c r="N33" s="247"/>
-      <c r="O33" s="247"/>
-      <c r="P33" s="248"/>
-      <c r="Q33" s="249"/>
-      <c r="R33" s="250"/>
-      <c r="S33" s="250"/>
-      <c r="T33" s="250"/>
-      <c r="U33" s="250"/>
-      <c r="V33" s="250"/>
-      <c r="W33" s="250"/>
-      <c r="X33" s="250"/>
-      <c r="Y33" s="250"/>
-      <c r="Z33" s="250"/>
-      <c r="AA33" s="250"/>
-      <c r="AB33" s="250"/>
-      <c r="AC33" s="250"/>
-      <c r="AD33" s="250"/>
-      <c r="AE33" s="251"/>
-      <c r="AF33" s="246"/>
-      <c r="AG33" s="247"/>
-      <c r="AH33" s="247"/>
-      <c r="AI33" s="248"/>
+      <c r="B33" s="276"/>
+      <c r="C33" s="277"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="281"/>
+      <c r="I33" s="277"/>
+      <c r="J33" s="282"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="283"/>
+      <c r="N33" s="283"/>
+      <c r="O33" s="283"/>
+      <c r="P33" s="284"/>
+      <c r="Q33" s="285"/>
+      <c r="R33" s="286"/>
+      <c r="S33" s="286"/>
+      <c r="T33" s="286"/>
+      <c r="U33" s="286"/>
+      <c r="V33" s="286"/>
+      <c r="W33" s="286"/>
+      <c r="X33" s="286"/>
+      <c r="Y33" s="286"/>
+      <c r="Z33" s="286"/>
+      <c r="AA33" s="286"/>
+      <c r="AB33" s="286"/>
+      <c r="AC33" s="286"/>
+      <c r="AD33" s="286"/>
+      <c r="AE33" s="287"/>
+      <c r="AF33" s="282"/>
+      <c r="AG33" s="283"/>
+      <c r="AH33" s="283"/>
+      <c r="AI33" s="284"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10784,161 +10723,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -11096,54 +10880,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="246" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271" t="str">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="277" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="255" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="286" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（バッチ）)
 サンプル取引/BXXXXXXX</v>
       </c>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="288"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
+      <c r="W1" s="265"/>
+      <c r="X1" s="265"/>
+      <c r="Y1" s="265"/>
+      <c r="Z1" s="266"/>
+      <c r="AA1" s="246" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="295" t="str">
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="273" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="297"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="275"/>
       <c r="AG1" s="298">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -11155,48 +10939,48 @@
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="246" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="271" t="str">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="281"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
-      <c r="X2" s="290"/>
-      <c r="Y2" s="290"/>
-      <c r="Z2" s="291"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="268"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="246" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="295" t="str">
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="273" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="297"/>
+      <c r="AD2" s="274"/>
+      <c r="AE2" s="274"/>
+      <c r="AF2" s="275"/>
       <c r="AG2" s="298" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -11208,46 +10992,46 @@
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="271" t="str">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="295" t="str">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="270"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271"/>
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="272"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="273" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="297"/>
+      <c r="AD3" s="274"/>
+      <c r="AE3" s="274"/>
+      <c r="AF3" s="275"/>
       <c r="AG3" s="298" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -12722,14 +12506,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12739,6 +12515,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="339">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -3545,29 +3545,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -3641,6 +3618,36 @@
       <t>カンテン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5143,6 +5150,72 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5249,72 +5322,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9330,57 +9337,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="268" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="249" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="271" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="277" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="264" t="s">
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="279"/>
+      <c r="S1" s="286" t="s">
         <v>314</v>
       </c>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="266"/>
-      <c r="AA1" s="246" t="s">
+      <c r="T1" s="287"/>
+      <c r="U1" s="287"/>
+      <c r="V1" s="287"/>
+      <c r="W1" s="287"/>
+      <c r="X1" s="287"/>
+      <c r="Y1" s="287"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="268" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" s="248"/>
-      <c r="AC1" s="273" t="str">
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="295" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="275"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="296"/>
+      <c r="AF1" s="297"/>
+      <c r="AG1" s="262">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -9388,53 +9395,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="268" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="249" t="s">
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="269"/>
-      <c r="AA2" s="246" t="s">
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="290"/>
+      <c r="U2" s="290"/>
+      <c r="V2" s="290"/>
+      <c r="W2" s="290"/>
+      <c r="X2" s="290"/>
+      <c r="Y2" s="290"/>
+      <c r="Z2" s="291"/>
+      <c r="AA2" s="268" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="274" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="276"/>
+      <c r="AG2" s="262" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -9442,45 +9449,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="268" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="249" t="s">
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="271" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="274"/>
-      <c r="AE3" s="274"/>
-      <c r="AF3" s="275"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="285"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="293"/>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="268"/>
+      <c r="AB3" s="270"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="297"/>
+      <c r="AG3" s="262"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -9517,97 +9524,97 @@
       <c r="A7" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="265" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="243" t="s">
+      <c r="C7" s="266"/>
+      <c r="D7" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="E7" s="267"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="245"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="243" t="s">
+      <c r="H7" s="267"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="265" t="s">
         <v>302</v>
       </c>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
-      <c r="N7" s="245"/>
-      <c r="O7" s="245"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="243" t="s">
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="265" t="s">
         <v>303</v>
       </c>
-      <c r="R7" s="245"/>
-      <c r="S7" s="245"/>
-      <c r="T7" s="245"/>
-      <c r="U7" s="245"/>
-      <c r="V7" s="245"/>
-      <c r="W7" s="245"/>
-      <c r="X7" s="245"/>
-      <c r="Y7" s="245"/>
-      <c r="Z7" s="245"/>
-      <c r="AA7" s="245"/>
-      <c r="AB7" s="245"/>
-      <c r="AC7" s="245"/>
-      <c r="AD7" s="245"/>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="243" t="s">
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="267"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="265" t="s">
         <v>304</v>
       </c>
-      <c r="AG7" s="245"/>
-      <c r="AH7" s="245"/>
-      <c r="AI7" s="244"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="266"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="253" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="289"/>
-      <c r="D8" s="290">
+      <c r="C8" s="254"/>
+      <c r="D8" s="255">
         <v>43336</v>
       </c>
-      <c r="E8" s="291"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="288" t="s">
+      <c r="E8" s="256"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="293"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="294" t="s">
+      <c r="H8" s="258"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="259" t="s">
         <v>311</v>
       </c>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="295"/>
-      <c r="N8" s="295"/>
-      <c r="O8" s="295"/>
-      <c r="P8" s="296"/>
-      <c r="Q8" s="294" t="s">
+      <c r="K8" s="260"/>
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="259" t="s">
         <v>312</v>
       </c>
-      <c r="R8" s="295"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="295"/>
-      <c r="W8" s="295"/>
-      <c r="X8" s="295"/>
-      <c r="Y8" s="295"/>
-      <c r="Z8" s="295"/>
-      <c r="AA8" s="295"/>
-      <c r="AB8" s="295"/>
-      <c r="AC8" s="295"/>
-      <c r="AD8" s="295"/>
-      <c r="AE8" s="296"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="260"/>
+      <c r="U8" s="260"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="260"/>
+      <c r="X8" s="260"/>
+      <c r="Y8" s="260"/>
+      <c r="Z8" s="260"/>
+      <c r="AA8" s="260"/>
+      <c r="AB8" s="260"/>
+      <c r="AC8" s="260"/>
+      <c r="AD8" s="260"/>
+      <c r="AE8" s="261"/>
       <c r="AF8" s="69" t="s">
         <v>313</v>
       </c>
@@ -9617,1089 +9624,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="276"/>
-      <c r="C9" s="277"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="283"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="283"/>
-      <c r="P9" s="284"/>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="286"/>
-      <c r="W9" s="286"/>
-      <c r="X9" s="286"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="287"/>
-      <c r="AF9" s="282"/>
-      <c r="AG9" s="283"/>
-      <c r="AH9" s="283"/>
-      <c r="AI9" s="284"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="247"/>
+      <c r="N9" s="247"/>
+      <c r="O9" s="247"/>
+      <c r="P9" s="248"/>
+      <c r="Q9" s="249"/>
+      <c r="R9" s="250"/>
+      <c r="S9" s="250"/>
+      <c r="T9" s="250"/>
+      <c r="U9" s="250"/>
+      <c r="V9" s="250"/>
+      <c r="W9" s="250"/>
+      <c r="X9" s="250"/>
+      <c r="Y9" s="250"/>
+      <c r="Z9" s="250"/>
+      <c r="AA9" s="250"/>
+      <c r="AB9" s="250"/>
+      <c r="AC9" s="250"/>
+      <c r="AD9" s="250"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="247"/>
+      <c r="AH9" s="247"/>
+      <c r="AI9" s="248"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="276"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="282"/>
-      <c r="K10" s="283"/>
-      <c r="L10" s="283"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="283"/>
-      <c r="O10" s="283"/>
-      <c r="P10" s="284"/>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="286"/>
-      <c r="S10" s="286"/>
-      <c r="T10" s="286"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="286"/>
-      <c r="W10" s="286"/>
-      <c r="X10" s="286"/>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="286"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="286"/>
-      <c r="AE10" s="287"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="284"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="247"/>
+      <c r="O10" s="247"/>
+      <c r="P10" s="248"/>
+      <c r="Q10" s="249"/>
+      <c r="R10" s="250"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="250"/>
+      <c r="U10" s="250"/>
+      <c r="V10" s="250"/>
+      <c r="W10" s="250"/>
+      <c r="X10" s="250"/>
+      <c r="Y10" s="250"/>
+      <c r="Z10" s="250"/>
+      <c r="AA10" s="250"/>
+      <c r="AB10" s="250"/>
+      <c r="AC10" s="250"/>
+      <c r="AD10" s="250"/>
+      <c r="AE10" s="251"/>
+      <c r="AF10" s="246"/>
+      <c r="AG10" s="247"/>
+      <c r="AH10" s="247"/>
+      <c r="AI10" s="248"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="276"/>
-      <c r="C11" s="277"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="276"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="277"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="283"/>
-      <c r="L11" s="283"/>
-      <c r="M11" s="283"/>
-      <c r="N11" s="283"/>
-      <c r="O11" s="283"/>
-      <c r="P11" s="284"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="286"/>
-      <c r="U11" s="286"/>
-      <c r="V11" s="286"/>
-      <c r="W11" s="286"/>
-      <c r="X11" s="286"/>
-      <c r="Y11" s="286"/>
-      <c r="Z11" s="286"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="286"/>
-      <c r="AC11" s="286"/>
-      <c r="AD11" s="286"/>
-      <c r="AE11" s="287"/>
-      <c r="AF11" s="282"/>
-      <c r="AG11" s="283"/>
-      <c r="AH11" s="283"/>
-      <c r="AI11" s="284"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="247"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="247"/>
+      <c r="N11" s="247"/>
+      <c r="O11" s="247"/>
+      <c r="P11" s="248"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="250"/>
+      <c r="S11" s="250"/>
+      <c r="T11" s="250"/>
+      <c r="U11" s="250"/>
+      <c r="V11" s="250"/>
+      <c r="W11" s="250"/>
+      <c r="X11" s="250"/>
+      <c r="Y11" s="250"/>
+      <c r="Z11" s="250"/>
+      <c r="AA11" s="250"/>
+      <c r="AB11" s="250"/>
+      <c r="AC11" s="250"/>
+      <c r="AD11" s="250"/>
+      <c r="AE11" s="251"/>
+      <c r="AF11" s="246"/>
+      <c r="AG11" s="247"/>
+      <c r="AH11" s="247"/>
+      <c r="AI11" s="248"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="276"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="280"/>
-      <c r="G12" s="276"/>
-      <c r="H12" s="281"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="282"/>
-      <c r="K12" s="283"/>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="283"/>
-      <c r="O12" s="283"/>
-      <c r="P12" s="284"/>
-      <c r="Q12" s="285"/>
-      <c r="R12" s="286"/>
-      <c r="S12" s="286"/>
-      <c r="T12" s="286"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="286"/>
-      <c r="W12" s="286"/>
-      <c r="X12" s="286"/>
-      <c r="Y12" s="286"/>
-      <c r="Z12" s="286"/>
-      <c r="AA12" s="286"/>
-      <c r="AB12" s="286"/>
-      <c r="AC12" s="286"/>
-      <c r="AD12" s="286"/>
-      <c r="AE12" s="287"/>
-      <c r="AF12" s="282"/>
-      <c r="AG12" s="283"/>
-      <c r="AH12" s="283"/>
-      <c r="AI12" s="284"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="247"/>
+      <c r="N12" s="247"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="248"/>
+      <c r="Q12" s="249"/>
+      <c r="R12" s="250"/>
+      <c r="S12" s="250"/>
+      <c r="T12" s="250"/>
+      <c r="U12" s="250"/>
+      <c r="V12" s="250"/>
+      <c r="W12" s="250"/>
+      <c r="X12" s="250"/>
+      <c r="Y12" s="250"/>
+      <c r="Z12" s="250"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="250"/>
+      <c r="AC12" s="250"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="247"/>
+      <c r="AH12" s="247"/>
+      <c r="AI12" s="248"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="276"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
-      <c r="G13" s="276"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="282"/>
-      <c r="K13" s="283"/>
-      <c r="L13" s="283"/>
-      <c r="M13" s="283"/>
-      <c r="N13" s="283"/>
-      <c r="O13" s="283"/>
-      <c r="P13" s="284"/>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="286"/>
-      <c r="S13" s="286"/>
-      <c r="T13" s="286"/>
-      <c r="U13" s="286"/>
-      <c r="V13" s="286"/>
-      <c r="W13" s="286"/>
-      <c r="X13" s="286"/>
-      <c r="Y13" s="286"/>
-      <c r="Z13" s="286"/>
-      <c r="AA13" s="286"/>
-      <c r="AB13" s="286"/>
-      <c r="AC13" s="286"/>
-      <c r="AD13" s="286"/>
-      <c r="AE13" s="287"/>
-      <c r="AF13" s="282"/>
-      <c r="AG13" s="283"/>
-      <c r="AH13" s="283"/>
-      <c r="AI13" s="284"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="247"/>
+      <c r="N13" s="247"/>
+      <c r="O13" s="247"/>
+      <c r="P13" s="248"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="250"/>
+      <c r="S13" s="250"/>
+      <c r="T13" s="250"/>
+      <c r="U13" s="250"/>
+      <c r="V13" s="250"/>
+      <c r="W13" s="250"/>
+      <c r="X13" s="250"/>
+      <c r="Y13" s="250"/>
+      <c r="Z13" s="250"/>
+      <c r="AA13" s="250"/>
+      <c r="AB13" s="250"/>
+      <c r="AC13" s="250"/>
+      <c r="AD13" s="250"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="247"/>
+      <c r="AH13" s="247"/>
+      <c r="AI13" s="248"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="276"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="280"/>
-      <c r="G14" s="276"/>
-      <c r="H14" s="281"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="282"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
-      <c r="M14" s="283"/>
-      <c r="N14" s="283"/>
-      <c r="O14" s="283"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="286"/>
-      <c r="T14" s="286"/>
-      <c r="U14" s="286"/>
-      <c r="V14" s="286"/>
-      <c r="W14" s="286"/>
-      <c r="X14" s="286"/>
-      <c r="Y14" s="286"/>
-      <c r="Z14" s="286"/>
-      <c r="AA14" s="286"/>
-      <c r="AB14" s="286"/>
-      <c r="AC14" s="286"/>
-      <c r="AD14" s="286"/>
-      <c r="AE14" s="287"/>
-      <c r="AF14" s="282"/>
-      <c r="AG14" s="283"/>
-      <c r="AH14" s="283"/>
-      <c r="AI14" s="284"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="247"/>
+      <c r="N14" s="247"/>
+      <c r="O14" s="247"/>
+      <c r="P14" s="248"/>
+      <c r="Q14" s="249"/>
+      <c r="R14" s="250"/>
+      <c r="S14" s="250"/>
+      <c r="T14" s="250"/>
+      <c r="U14" s="250"/>
+      <c r="V14" s="250"/>
+      <c r="W14" s="250"/>
+      <c r="X14" s="250"/>
+      <c r="Y14" s="250"/>
+      <c r="Z14" s="250"/>
+      <c r="AA14" s="250"/>
+      <c r="AB14" s="250"/>
+      <c r="AC14" s="250"/>
+      <c r="AD14" s="250"/>
+      <c r="AE14" s="251"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="247"/>
+      <c r="AH14" s="247"/>
+      <c r="AI14" s="248"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="276"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="280"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="281"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="282"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="283"/>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="286"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="286"/>
-      <c r="X15" s="286"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="286"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="287"/>
-      <c r="AF15" s="282"/>
-      <c r="AG15" s="283"/>
-      <c r="AH15" s="283"/>
-      <c r="AI15" s="284"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
+      <c r="N15" s="247"/>
+      <c r="O15" s="247"/>
+      <c r="P15" s="248"/>
+      <c r="Q15" s="249"/>
+      <c r="R15" s="250"/>
+      <c r="S15" s="250"/>
+      <c r="T15" s="250"/>
+      <c r="U15" s="250"/>
+      <c r="V15" s="250"/>
+      <c r="W15" s="250"/>
+      <c r="X15" s="250"/>
+      <c r="Y15" s="250"/>
+      <c r="Z15" s="250"/>
+      <c r="AA15" s="250"/>
+      <c r="AB15" s="250"/>
+      <c r="AC15" s="250"/>
+      <c r="AD15" s="250"/>
+      <c r="AE15" s="251"/>
+      <c r="AF15" s="246"/>
+      <c r="AG15" s="247"/>
+      <c r="AH15" s="247"/>
+      <c r="AI15" s="248"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="276"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="280"/>
-      <c r="G16" s="276"/>
-      <c r="H16" s="281"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="282"/>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
-      <c r="M16" s="283"/>
-      <c r="N16" s="283"/>
-      <c r="O16" s="283"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="286"/>
-      <c r="S16" s="286"/>
-      <c r="T16" s="286"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="286"/>
-      <c r="W16" s="286"/>
-      <c r="X16" s="286"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="286"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="287"/>
-      <c r="AF16" s="282"/>
-      <c r="AG16" s="283"/>
-      <c r="AH16" s="283"/>
-      <c r="AI16" s="284"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="248"/>
+      <c r="Q16" s="249"/>
+      <c r="R16" s="250"/>
+      <c r="S16" s="250"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="250"/>
+      <c r="W16" s="250"/>
+      <c r="X16" s="250"/>
+      <c r="Y16" s="250"/>
+      <c r="Z16" s="250"/>
+      <c r="AA16" s="250"/>
+      <c r="AB16" s="250"/>
+      <c r="AC16" s="250"/>
+      <c r="AD16" s="250"/>
+      <c r="AE16" s="251"/>
+      <c r="AF16" s="246"/>
+      <c r="AG16" s="247"/>
+      <c r="AH16" s="247"/>
+      <c r="AI16" s="248"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="276"/>
-      <c r="C17" s="277"/>
-      <c r="D17" s="278"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="280"/>
-      <c r="G17" s="276"/>
-      <c r="H17" s="281"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="282"/>
-      <c r="K17" s="283"/>
-      <c r="L17" s="283"/>
-      <c r="M17" s="283"/>
-      <c r="N17" s="283"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="286"/>
-      <c r="S17" s="286"/>
-      <c r="T17" s="286"/>
-      <c r="U17" s="286"/>
-      <c r="V17" s="286"/>
-      <c r="W17" s="286"/>
-      <c r="X17" s="286"/>
-      <c r="Y17" s="286"/>
-      <c r="Z17" s="286"/>
-      <c r="AA17" s="286"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="286"/>
-      <c r="AD17" s="286"/>
-      <c r="AE17" s="287"/>
-      <c r="AF17" s="282"/>
-      <c r="AG17" s="283"/>
-      <c r="AH17" s="283"/>
-      <c r="AI17" s="284"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="247"/>
+      <c r="N17" s="247"/>
+      <c r="O17" s="247"/>
+      <c r="P17" s="248"/>
+      <c r="Q17" s="249"/>
+      <c r="R17" s="250"/>
+      <c r="S17" s="250"/>
+      <c r="T17" s="250"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="250"/>
+      <c r="Z17" s="250"/>
+      <c r="AA17" s="250"/>
+      <c r="AB17" s="250"/>
+      <c r="AC17" s="250"/>
+      <c r="AD17" s="250"/>
+      <c r="AE17" s="251"/>
+      <c r="AF17" s="246"/>
+      <c r="AG17" s="247"/>
+      <c r="AH17" s="247"/>
+      <c r="AI17" s="248"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="276"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="278"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="276"/>
-      <c r="H18" s="281"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="282"/>
-      <c r="K18" s="283"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="283"/>
-      <c r="N18" s="283"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="284"/>
-      <c r="Q18" s="285"/>
-      <c r="R18" s="286"/>
-      <c r="S18" s="286"/>
-      <c r="T18" s="286"/>
-      <c r="U18" s="286"/>
-      <c r="V18" s="286"/>
-      <c r="W18" s="286"/>
-      <c r="X18" s="286"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="286"/>
-      <c r="AA18" s="286"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="286"/>
-      <c r="AD18" s="286"/>
-      <c r="AE18" s="287"/>
-      <c r="AF18" s="282"/>
-      <c r="AG18" s="283"/>
-      <c r="AH18" s="283"/>
-      <c r="AI18" s="284"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="247"/>
+      <c r="N18" s="247"/>
+      <c r="O18" s="247"/>
+      <c r="P18" s="248"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="250"/>
+      <c r="S18" s="250"/>
+      <c r="T18" s="250"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="250"/>
+      <c r="W18" s="250"/>
+      <c r="X18" s="250"/>
+      <c r="Y18" s="250"/>
+      <c r="Z18" s="250"/>
+      <c r="AA18" s="250"/>
+      <c r="AB18" s="250"/>
+      <c r="AC18" s="250"/>
+      <c r="AD18" s="250"/>
+      <c r="AE18" s="251"/>
+      <c r="AF18" s="246"/>
+      <c r="AG18" s="247"/>
+      <c r="AH18" s="247"/>
+      <c r="AI18" s="248"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="276"/>
-      <c r="C19" s="277"/>
-      <c r="D19" s="278"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="280"/>
-      <c r="G19" s="276"/>
-      <c r="H19" s="281"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="283"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="284"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="286"/>
-      <c r="S19" s="286"/>
-      <c r="T19" s="286"/>
-      <c r="U19" s="286"/>
-      <c r="V19" s="286"/>
-      <c r="W19" s="286"/>
-      <c r="X19" s="286"/>
-      <c r="Y19" s="286"/>
-      <c r="Z19" s="286"/>
-      <c r="AA19" s="286"/>
-      <c r="AB19" s="286"/>
-      <c r="AC19" s="286"/>
-      <c r="AD19" s="286"/>
-      <c r="AE19" s="287"/>
-      <c r="AF19" s="282"/>
-      <c r="AG19" s="283"/>
-      <c r="AH19" s="283"/>
-      <c r="AI19" s="284"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="247"/>
+      <c r="N19" s="247"/>
+      <c r="O19" s="247"/>
+      <c r="P19" s="248"/>
+      <c r="Q19" s="249"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="251"/>
+      <c r="AF19" s="246"/>
+      <c r="AG19" s="247"/>
+      <c r="AH19" s="247"/>
+      <c r="AI19" s="248"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="276"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="278"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="280"/>
-      <c r="G20" s="276"/>
-      <c r="H20" s="281"/>
-      <c r="I20" s="277"/>
-      <c r="J20" s="282"/>
-      <c r="K20" s="283"/>
-      <c r="L20" s="283"/>
-      <c r="M20" s="283"/>
-      <c r="N20" s="283"/>
-      <c r="O20" s="283"/>
-      <c r="P20" s="284"/>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="286"/>
-      <c r="S20" s="286"/>
-      <c r="T20" s="286"/>
-      <c r="U20" s="286"/>
-      <c r="V20" s="286"/>
-      <c r="W20" s="286"/>
-      <c r="X20" s="286"/>
-      <c r="Y20" s="286"/>
-      <c r="Z20" s="286"/>
-      <c r="AA20" s="286"/>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="286"/>
-      <c r="AD20" s="286"/>
-      <c r="AE20" s="287"/>
-      <c r="AF20" s="282"/>
-      <c r="AG20" s="283"/>
-      <c r="AH20" s="283"/>
-      <c r="AI20" s="284"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="247"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="247"/>
+      <c r="N20" s="247"/>
+      <c r="O20" s="247"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="249"/>
+      <c r="R20" s="250"/>
+      <c r="S20" s="250"/>
+      <c r="T20" s="250"/>
+      <c r="U20" s="250"/>
+      <c r="V20" s="250"/>
+      <c r="W20" s="250"/>
+      <c r="X20" s="250"/>
+      <c r="Y20" s="250"/>
+      <c r="Z20" s="250"/>
+      <c r="AA20" s="250"/>
+      <c r="AB20" s="250"/>
+      <c r="AC20" s="250"/>
+      <c r="AD20" s="250"/>
+      <c r="AE20" s="251"/>
+      <c r="AF20" s="246"/>
+      <c r="AG20" s="247"/>
+      <c r="AH20" s="247"/>
+      <c r="AI20" s="248"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="276"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="276"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="283"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283"/>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="284"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="286"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="286"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="286"/>
-      <c r="W21" s="286"/>
-      <c r="X21" s="286"/>
-      <c r="Y21" s="286"/>
-      <c r="Z21" s="286"/>
-      <c r="AA21" s="286"/>
-      <c r="AB21" s="286"/>
-      <c r="AC21" s="286"/>
-      <c r="AD21" s="286"/>
-      <c r="AE21" s="287"/>
-      <c r="AF21" s="282"/>
-      <c r="AG21" s="283"/>
-      <c r="AH21" s="283"/>
-      <c r="AI21" s="284"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="245"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="247"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="247"/>
+      <c r="O21" s="247"/>
+      <c r="P21" s="248"/>
+      <c r="Q21" s="249"/>
+      <c r="R21" s="250"/>
+      <c r="S21" s="250"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="250"/>
+      <c r="W21" s="250"/>
+      <c r="X21" s="250"/>
+      <c r="Y21" s="250"/>
+      <c r="Z21" s="250"/>
+      <c r="AA21" s="250"/>
+      <c r="AB21" s="250"/>
+      <c r="AC21" s="250"/>
+      <c r="AD21" s="250"/>
+      <c r="AE21" s="251"/>
+      <c r="AF21" s="246"/>
+      <c r="AG21" s="247"/>
+      <c r="AH21" s="247"/>
+      <c r="AI21" s="248"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="276"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="278"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="281"/>
-      <c r="I22" s="277"/>
-      <c r="J22" s="282"/>
-      <c r="K22" s="283"/>
-      <c r="L22" s="283"/>
-      <c r="M22" s="283"/>
-      <c r="N22" s="283"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="284"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="286"/>
-      <c r="S22" s="286"/>
-      <c r="T22" s="286"/>
-      <c r="U22" s="286"/>
-      <c r="V22" s="286"/>
-      <c r="W22" s="286"/>
-      <c r="X22" s="286"/>
-      <c r="Y22" s="286"/>
-      <c r="Z22" s="286"/>
-      <c r="AA22" s="286"/>
-      <c r="AB22" s="286"/>
-      <c r="AC22" s="286"/>
-      <c r="AD22" s="286"/>
-      <c r="AE22" s="287"/>
-      <c r="AF22" s="282"/>
-      <c r="AG22" s="283"/>
-      <c r="AH22" s="283"/>
-      <c r="AI22" s="284"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="245"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="246"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="247"/>
+      <c r="N22" s="247"/>
+      <c r="O22" s="247"/>
+      <c r="P22" s="248"/>
+      <c r="Q22" s="249"/>
+      <c r="R22" s="250"/>
+      <c r="S22" s="250"/>
+      <c r="T22" s="250"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="250"/>
+      <c r="W22" s="250"/>
+      <c r="X22" s="250"/>
+      <c r="Y22" s="250"/>
+      <c r="Z22" s="250"/>
+      <c r="AA22" s="250"/>
+      <c r="AB22" s="250"/>
+      <c r="AC22" s="250"/>
+      <c r="AD22" s="250"/>
+      <c r="AE22" s="251"/>
+      <c r="AF22" s="246"/>
+      <c r="AG22" s="247"/>
+      <c r="AH22" s="247"/>
+      <c r="AI22" s="248"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="276"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="280"/>
-      <c r="G23" s="276"/>
-      <c r="H23" s="281"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="282"/>
-      <c r="K23" s="283"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="283"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="284"/>
-      <c r="Q23" s="285"/>
-      <c r="R23" s="286"/>
-      <c r="S23" s="286"/>
-      <c r="T23" s="286"/>
-      <c r="U23" s="286"/>
-      <c r="V23" s="286"/>
-      <c r="W23" s="286"/>
-      <c r="X23" s="286"/>
-      <c r="Y23" s="286"/>
-      <c r="Z23" s="286"/>
-      <c r="AA23" s="286"/>
-      <c r="AB23" s="286"/>
-      <c r="AC23" s="286"/>
-      <c r="AD23" s="286"/>
-      <c r="AE23" s="287"/>
-      <c r="AF23" s="282"/>
-      <c r="AG23" s="283"/>
-      <c r="AH23" s="283"/>
-      <c r="AI23" s="284"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="240"/>
+      <c r="H23" s="245"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="247"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="247"/>
+      <c r="N23" s="247"/>
+      <c r="O23" s="247"/>
+      <c r="P23" s="248"/>
+      <c r="Q23" s="249"/>
+      <c r="R23" s="250"/>
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
+      <c r="U23" s="250"/>
+      <c r="V23" s="250"/>
+      <c r="W23" s="250"/>
+      <c r="X23" s="250"/>
+      <c r="Y23" s="250"/>
+      <c r="Z23" s="250"/>
+      <c r="AA23" s="250"/>
+      <c r="AB23" s="250"/>
+      <c r="AC23" s="250"/>
+      <c r="AD23" s="250"/>
+      <c r="AE23" s="251"/>
+      <c r="AF23" s="246"/>
+      <c r="AG23" s="247"/>
+      <c r="AH23" s="247"/>
+      <c r="AI23" s="248"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="278"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="280"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="281"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="283"/>
-      <c r="L24" s="283"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="283"/>
-      <c r="O24" s="283"/>
-      <c r="P24" s="284"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="286"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="286"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="286"/>
-      <c r="W24" s="286"/>
-      <c r="X24" s="286"/>
-      <c r="Y24" s="286"/>
-      <c r="Z24" s="286"/>
-      <c r="AA24" s="286"/>
-      <c r="AB24" s="286"/>
-      <c r="AC24" s="286"/>
-      <c r="AD24" s="286"/>
-      <c r="AE24" s="287"/>
-      <c r="AF24" s="282"/>
-      <c r="AG24" s="283"/>
-      <c r="AH24" s="283"/>
-      <c r="AI24" s="284"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="246"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="247"/>
+      <c r="N24" s="247"/>
+      <c r="O24" s="247"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="249"/>
+      <c r="R24" s="250"/>
+      <c r="S24" s="250"/>
+      <c r="T24" s="250"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
+      <c r="X24" s="250"/>
+      <c r="Y24" s="250"/>
+      <c r="Z24" s="250"/>
+      <c r="AA24" s="250"/>
+      <c r="AB24" s="250"/>
+      <c r="AC24" s="250"/>
+      <c r="AD24" s="250"/>
+      <c r="AE24" s="251"/>
+      <c r="AF24" s="246"/>
+      <c r="AG24" s="247"/>
+      <c r="AH24" s="247"/>
+      <c r="AI24" s="248"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="283"/>
-      <c r="L25" s="283"/>
-      <c r="M25" s="283"/>
-      <c r="N25" s="283"/>
-      <c r="O25" s="283"/>
-      <c r="P25" s="284"/>
-      <c r="Q25" s="285"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="286"/>
-      <c r="X25" s="286"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
-      <c r="AD25" s="286"/>
-      <c r="AE25" s="287"/>
-      <c r="AF25" s="282"/>
-      <c r="AG25" s="283"/>
-      <c r="AH25" s="283"/>
-      <c r="AI25" s="284"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
+      <c r="N25" s="247"/>
+      <c r="O25" s="247"/>
+      <c r="P25" s="248"/>
+      <c r="Q25" s="249"/>
+      <c r="R25" s="250"/>
+      <c r="S25" s="250"/>
+      <c r="T25" s="250"/>
+      <c r="U25" s="250"/>
+      <c r="V25" s="250"/>
+      <c r="W25" s="250"/>
+      <c r="X25" s="250"/>
+      <c r="Y25" s="250"/>
+      <c r="Z25" s="250"/>
+      <c r="AA25" s="250"/>
+      <c r="AB25" s="250"/>
+      <c r="AC25" s="250"/>
+      <c r="AD25" s="250"/>
+      <c r="AE25" s="251"/>
+      <c r="AF25" s="246"/>
+      <c r="AG25" s="247"/>
+      <c r="AH25" s="247"/>
+      <c r="AI25" s="248"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="276"/>
-      <c r="C26" s="277"/>
-      <c r="D26" s="278"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="280"/>
-      <c r="G26" s="276"/>
-      <c r="H26" s="281"/>
-      <c r="I26" s="277"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="283"/>
-      <c r="L26" s="283"/>
-      <c r="M26" s="283"/>
-      <c r="N26" s="283"/>
-      <c r="O26" s="283"/>
-      <c r="P26" s="284"/>
-      <c r="Q26" s="285"/>
-      <c r="R26" s="286"/>
-      <c r="S26" s="286"/>
-      <c r="T26" s="286"/>
-      <c r="U26" s="286"/>
-      <c r="V26" s="286"/>
-      <c r="W26" s="286"/>
-      <c r="X26" s="286"/>
-      <c r="Y26" s="286"/>
-      <c r="Z26" s="286"/>
-      <c r="AA26" s="286"/>
-      <c r="AB26" s="286"/>
-      <c r="AC26" s="286"/>
-      <c r="AD26" s="286"/>
-      <c r="AE26" s="287"/>
-      <c r="AF26" s="282"/>
-      <c r="AG26" s="283"/>
-      <c r="AH26" s="283"/>
-      <c r="AI26" s="284"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="246"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="249"/>
+      <c r="R26" s="250"/>
+      <c r="S26" s="250"/>
+      <c r="T26" s="250"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="250"/>
+      <c r="W26" s="250"/>
+      <c r="X26" s="250"/>
+      <c r="Y26" s="250"/>
+      <c r="Z26" s="250"/>
+      <c r="AA26" s="250"/>
+      <c r="AB26" s="250"/>
+      <c r="AC26" s="250"/>
+      <c r="AD26" s="250"/>
+      <c r="AE26" s="251"/>
+      <c r="AF26" s="246"/>
+      <c r="AG26" s="247"/>
+      <c r="AH26" s="247"/>
+      <c r="AI26" s="248"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="276"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="283"/>
-      <c r="L27" s="283"/>
-      <c r="M27" s="283"/>
-      <c r="N27" s="283"/>
-      <c r="O27" s="283"/>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="286"/>
-      <c r="S27" s="286"/>
-      <c r="T27" s="286"/>
-      <c r="U27" s="286"/>
-      <c r="V27" s="286"/>
-      <c r="W27" s="286"/>
-      <c r="X27" s="286"/>
-      <c r="Y27" s="286"/>
-      <c r="Z27" s="286"/>
-      <c r="AA27" s="286"/>
-      <c r="AB27" s="286"/>
-      <c r="AC27" s="286"/>
-      <c r="AD27" s="286"/>
-      <c r="AE27" s="287"/>
-      <c r="AF27" s="282"/>
-      <c r="AG27" s="283"/>
-      <c r="AH27" s="283"/>
-      <c r="AI27" s="284"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="240"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
+      <c r="N27" s="247"/>
+      <c r="O27" s="247"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="249"/>
+      <c r="R27" s="250"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="250"/>
+      <c r="W27" s="250"/>
+      <c r="X27" s="250"/>
+      <c r="Y27" s="250"/>
+      <c r="Z27" s="250"/>
+      <c r="AA27" s="250"/>
+      <c r="AB27" s="250"/>
+      <c r="AC27" s="250"/>
+      <c r="AD27" s="250"/>
+      <c r="AE27" s="251"/>
+      <c r="AF27" s="246"/>
+      <c r="AG27" s="247"/>
+      <c r="AH27" s="247"/>
+      <c r="AI27" s="248"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="276"/>
-      <c r="C28" s="277"/>
-      <c r="D28" s="278"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="280"/>
-      <c r="G28" s="276"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="277"/>
-      <c r="J28" s="282"/>
-      <c r="K28" s="283"/>
-      <c r="L28" s="283"/>
-      <c r="M28" s="283"/>
-      <c r="N28" s="283"/>
-      <c r="O28" s="283"/>
-      <c r="P28" s="284"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
-      <c r="W28" s="286"/>
-      <c r="X28" s="286"/>
-      <c r="Y28" s="286"/>
-      <c r="Z28" s="286"/>
-      <c r="AA28" s="286"/>
-      <c r="AB28" s="286"/>
-      <c r="AC28" s="286"/>
-      <c r="AD28" s="286"/>
-      <c r="AE28" s="287"/>
-      <c r="AF28" s="282"/>
-      <c r="AG28" s="283"/>
-      <c r="AH28" s="283"/>
-      <c r="AI28" s="284"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="240"/>
+      <c r="H28" s="245"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="247"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="247"/>
+      <c r="O28" s="247"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="249"/>
+      <c r="R28" s="250"/>
+      <c r="S28" s="250"/>
+      <c r="T28" s="250"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="250"/>
+      <c r="W28" s="250"/>
+      <c r="X28" s="250"/>
+      <c r="Y28" s="250"/>
+      <c r="Z28" s="250"/>
+      <c r="AA28" s="250"/>
+      <c r="AB28" s="250"/>
+      <c r="AC28" s="250"/>
+      <c r="AD28" s="250"/>
+      <c r="AE28" s="251"/>
+      <c r="AF28" s="246"/>
+      <c r="AG28" s="247"/>
+      <c r="AH28" s="247"/>
+      <c r="AI28" s="248"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="276"/>
-      <c r="C29" s="277"/>
-      <c r="D29" s="278"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="276"/>
-      <c r="H29" s="281"/>
-      <c r="I29" s="277"/>
-      <c r="J29" s="282"/>
-      <c r="K29" s="283"/>
-      <c r="L29" s="283"/>
-      <c r="M29" s="283"/>
-      <c r="N29" s="283"/>
-      <c r="O29" s="283"/>
-      <c r="P29" s="284"/>
-      <c r="Q29" s="285"/>
-      <c r="R29" s="286"/>
-      <c r="S29" s="286"/>
-      <c r="T29" s="286"/>
-      <c r="U29" s="286"/>
-      <c r="V29" s="286"/>
-      <c r="W29" s="286"/>
-      <c r="X29" s="286"/>
-      <c r="Y29" s="286"/>
-      <c r="Z29" s="286"/>
-      <c r="AA29" s="286"/>
-      <c r="AB29" s="286"/>
-      <c r="AC29" s="286"/>
-      <c r="AD29" s="286"/>
-      <c r="AE29" s="287"/>
-      <c r="AF29" s="282"/>
-      <c r="AG29" s="283"/>
-      <c r="AH29" s="283"/>
-      <c r="AI29" s="284"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="247"/>
+      <c r="N29" s="247"/>
+      <c r="O29" s="247"/>
+      <c r="P29" s="248"/>
+      <c r="Q29" s="249"/>
+      <c r="R29" s="250"/>
+      <c r="S29" s="250"/>
+      <c r="T29" s="250"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="250"/>
+      <c r="W29" s="250"/>
+      <c r="X29" s="250"/>
+      <c r="Y29" s="250"/>
+      <c r="Z29" s="250"/>
+      <c r="AA29" s="250"/>
+      <c r="AB29" s="250"/>
+      <c r="AC29" s="250"/>
+      <c r="AD29" s="250"/>
+      <c r="AE29" s="251"/>
+      <c r="AF29" s="246"/>
+      <c r="AG29" s="247"/>
+      <c r="AH29" s="247"/>
+      <c r="AI29" s="248"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="276"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="280"/>
-      <c r="G30" s="276"/>
-      <c r="H30" s="281"/>
-      <c r="I30" s="277"/>
-      <c r="J30" s="282"/>
-      <c r="K30" s="283"/>
-      <c r="L30" s="283"/>
-      <c r="M30" s="283"/>
-      <c r="N30" s="283"/>
-      <c r="O30" s="283"/>
-      <c r="P30" s="284"/>
-      <c r="Q30" s="285"/>
-      <c r="R30" s="286"/>
-      <c r="S30" s="286"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="286"/>
-      <c r="V30" s="286"/>
-      <c r="W30" s="286"/>
-      <c r="X30" s="286"/>
-      <c r="Y30" s="286"/>
-      <c r="Z30" s="286"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="286"/>
-      <c r="AC30" s="286"/>
-      <c r="AD30" s="286"/>
-      <c r="AE30" s="287"/>
-      <c r="AF30" s="282"/>
-      <c r="AG30" s="283"/>
-      <c r="AH30" s="283"/>
-      <c r="AI30" s="284"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="246"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="247"/>
+      <c r="N30" s="247"/>
+      <c r="O30" s="247"/>
+      <c r="P30" s="248"/>
+      <c r="Q30" s="249"/>
+      <c r="R30" s="250"/>
+      <c r="S30" s="250"/>
+      <c r="T30" s="250"/>
+      <c r="U30" s="250"/>
+      <c r="V30" s="250"/>
+      <c r="W30" s="250"/>
+      <c r="X30" s="250"/>
+      <c r="Y30" s="250"/>
+      <c r="Z30" s="250"/>
+      <c r="AA30" s="250"/>
+      <c r="AB30" s="250"/>
+      <c r="AC30" s="250"/>
+      <c r="AD30" s="250"/>
+      <c r="AE30" s="251"/>
+      <c r="AF30" s="246"/>
+      <c r="AG30" s="247"/>
+      <c r="AH30" s="247"/>
+      <c r="AI30" s="248"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="276"/>
-      <c r="C31" s="277"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="280"/>
-      <c r="G31" s="276"/>
-      <c r="H31" s="281"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="282"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283"/>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="284"/>
-      <c r="Q31" s="285"/>
-      <c r="R31" s="286"/>
-      <c r="S31" s="286"/>
-      <c r="T31" s="286"/>
-      <c r="U31" s="286"/>
-      <c r="V31" s="286"/>
-      <c r="W31" s="286"/>
-      <c r="X31" s="286"/>
-      <c r="Y31" s="286"/>
-      <c r="Z31" s="286"/>
-      <c r="AA31" s="286"/>
-      <c r="AB31" s="286"/>
-      <c r="AC31" s="286"/>
-      <c r="AD31" s="286"/>
-      <c r="AE31" s="287"/>
-      <c r="AF31" s="282"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="283"/>
-      <c r="AI31" s="284"/>
+      <c r="B31" s="240"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="246"/>
+      <c r="K31" s="247"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="247"/>
+      <c r="N31" s="247"/>
+      <c r="O31" s="247"/>
+      <c r="P31" s="248"/>
+      <c r="Q31" s="249"/>
+      <c r="R31" s="250"/>
+      <c r="S31" s="250"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="250"/>
+      <c r="V31" s="250"/>
+      <c r="W31" s="250"/>
+      <c r="X31" s="250"/>
+      <c r="Y31" s="250"/>
+      <c r="Z31" s="250"/>
+      <c r="AA31" s="250"/>
+      <c r="AB31" s="250"/>
+      <c r="AC31" s="250"/>
+      <c r="AD31" s="250"/>
+      <c r="AE31" s="251"/>
+      <c r="AF31" s="246"/>
+      <c r="AG31" s="247"/>
+      <c r="AH31" s="247"/>
+      <c r="AI31" s="248"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="276"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="280"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="281"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="282"/>
-      <c r="K32" s="297"/>
-      <c r="L32" s="283"/>
-      <c r="M32" s="283"/>
-      <c r="N32" s="283"/>
-      <c r="O32" s="283"/>
-      <c r="P32" s="284"/>
-      <c r="Q32" s="285"/>
-      <c r="R32" s="286"/>
-      <c r="S32" s="286"/>
-      <c r="T32" s="286"/>
-      <c r="U32" s="286"/>
-      <c r="V32" s="286"/>
-      <c r="W32" s="286"/>
-      <c r="X32" s="286"/>
-      <c r="Y32" s="286"/>
-      <c r="Z32" s="286"/>
-      <c r="AA32" s="286"/>
-      <c r="AB32" s="286"/>
-      <c r="AC32" s="286"/>
-      <c r="AD32" s="286"/>
-      <c r="AE32" s="287"/>
-      <c r="AF32" s="282"/>
-      <c r="AG32" s="283"/>
-      <c r="AH32" s="283"/>
-      <c r="AI32" s="284"/>
+      <c r="B32" s="240"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="245"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="247"/>
+      <c r="N32" s="247"/>
+      <c r="O32" s="247"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="249"/>
+      <c r="R32" s="250"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="250"/>
+      <c r="W32" s="250"/>
+      <c r="X32" s="250"/>
+      <c r="Y32" s="250"/>
+      <c r="Z32" s="250"/>
+      <c r="AA32" s="250"/>
+      <c r="AB32" s="250"/>
+      <c r="AC32" s="250"/>
+      <c r="AD32" s="250"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="246"/>
+      <c r="AG32" s="247"/>
+      <c r="AH32" s="247"/>
+      <c r="AI32" s="248"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="276"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="278"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="280"/>
-      <c r="G33" s="276"/>
-      <c r="H33" s="281"/>
-      <c r="I33" s="277"/>
-      <c r="J33" s="282"/>
-      <c r="K33" s="283"/>
-      <c r="L33" s="283"/>
-      <c r="M33" s="283"/>
-      <c r="N33" s="283"/>
-      <c r="O33" s="283"/>
-      <c r="P33" s="284"/>
-      <c r="Q33" s="285"/>
-      <c r="R33" s="286"/>
-      <c r="S33" s="286"/>
-      <c r="T33" s="286"/>
-      <c r="U33" s="286"/>
-      <c r="V33" s="286"/>
-      <c r="W33" s="286"/>
-      <c r="X33" s="286"/>
-      <c r="Y33" s="286"/>
-      <c r="Z33" s="286"/>
-      <c r="AA33" s="286"/>
-      <c r="AB33" s="286"/>
-      <c r="AC33" s="286"/>
-      <c r="AD33" s="286"/>
-      <c r="AE33" s="287"/>
-      <c r="AF33" s="282"/>
-      <c r="AG33" s="283"/>
-      <c r="AH33" s="283"/>
-      <c r="AI33" s="284"/>
+      <c r="B33" s="240"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="240"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="246"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="247"/>
+      <c r="N33" s="247"/>
+      <c r="O33" s="247"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="249"/>
+      <c r="R33" s="250"/>
+      <c r="S33" s="250"/>
+      <c r="T33" s="250"/>
+      <c r="U33" s="250"/>
+      <c r="V33" s="250"/>
+      <c r="W33" s="250"/>
+      <c r="X33" s="250"/>
+      <c r="Y33" s="250"/>
+      <c r="Z33" s="250"/>
+      <c r="AA33" s="250"/>
+      <c r="AB33" s="250"/>
+      <c r="AC33" s="250"/>
+      <c r="AD33" s="250"/>
+      <c r="AE33" s="251"/>
+      <c r="AF33" s="246"/>
+      <c r="AG33" s="247"/>
+      <c r="AH33" s="247"/>
+      <c r="AI33" s="248"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10723,6 +10575,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -10880,54 +10887,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="268" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="249" t="str">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="277" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="264" t="str">
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="279"/>
+      <c r="S1" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（バッチ）)
 サンプル取引/BXXXXXXX</v>
       </c>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="266"/>
-      <c r="AA1" s="246" t="s">
+      <c r="T1" s="287"/>
+      <c r="U1" s="287"/>
+      <c r="V1" s="287"/>
+      <c r="W1" s="287"/>
+      <c r="X1" s="287"/>
+      <c r="Y1" s="287"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="268" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" s="248"/>
-      <c r="AC1" s="273" t="str">
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="295" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="275"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="296"/>
+      <c r="AF1" s="297"/>
       <c r="AG1" s="298">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -10939,48 +10946,48 @@
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="268" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="249" t="str">
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="269"/>
-      <c r="AA2" s="246" t="s">
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="290"/>
+      <c r="U2" s="290"/>
+      <c r="V2" s="290"/>
+      <c r="W2" s="290"/>
+      <c r="X2" s="290"/>
+      <c r="Y2" s="290"/>
+      <c r="Z2" s="291"/>
+      <c r="AA2" s="268" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="273" t="str">
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="295" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="274"/>
-      <c r="AE2" s="274"/>
-      <c r="AF2" s="275"/>
+      <c r="AD2" s="296"/>
+      <c r="AE2" s="296"/>
+      <c r="AF2" s="297"/>
       <c r="AG2" s="298" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10992,46 +10999,46 @@
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="268" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="249" t="str">
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="273" t="str">
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="285"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="293"/>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="268"/>
+      <c r="AB3" s="270"/>
+      <c r="AC3" s="295" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="274"/>
-      <c r="AE3" s="274"/>
-      <c r="AF3" s="275"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="297"/>
       <c r="AG3" s="298" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -12506,6 +12513,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12515,14 +12530,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12971,10 +12978,10 @@
         <v>51</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E23" s="106" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
@@ -12995,10 +13002,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="108" t="s">
         <v>330</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>332</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
@@ -13019,10 +13026,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="109" t="s">
         <v>330</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>332</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -13043,7 +13050,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>328</v>
@@ -13067,10 +13074,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
@@ -13091,10 +13098,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E28" s="110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
@@ -13117,10 +13124,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
@@ -13141,10 +13148,10 @@
         <v>57</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E30" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
@@ -13165,10 +13172,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
@@ -13189,10 +13196,10 @@
         <v>59</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E32" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
@@ -13348,7 +13355,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>14</v>
@@ -13575,7 +13582,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G17" s="168" t="s">
         <v>115</v>
@@ -13601,7 +13608,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G18" s="168" t="s">
         <v>118</v>
@@ -13627,7 +13634,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G19" s="168" t="s">
         <v>118</v>
@@ -13653,7 +13660,7 @@
         <v>122</v>
       </c>
       <c r="F20" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G20" s="168" t="s">
         <v>123</v>
@@ -13679,7 +13686,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G21" s="168" t="s">
         <v>126</v>
@@ -13705,7 +13712,7 @@
         <v>128</v>
       </c>
       <c r="F22" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G22" s="168" t="s">
         <v>126</v>
@@ -13811,7 +13818,7 @@
         <v>139</v>
       </c>
       <c r="F26" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G26" s="168" t="s">
         <v>118</v>
@@ -13837,7 +13844,7 @@
         <v>141</v>
       </c>
       <c r="F27" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G27" s="168" t="s">
         <v>118</v>
@@ -13863,7 +13870,7 @@
         <v>143</v>
       </c>
       <c r="F28" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G28" s="168" t="s">
         <v>144</v>
@@ -13889,7 +13896,7 @@
         <v>146</v>
       </c>
       <c r="F29" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G29" s="168" t="s">
         <v>144</v>
@@ -14075,7 +14082,7 @@
       </c>
       <c r="E36" s="178"/>
       <c r="F36" s="186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G36" s="180" t="s">
         <v>64</v>
@@ -14101,7 +14108,7 @@
       </c>
       <c r="E37" s="178"/>
       <c r="F37" s="186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G37" s="180" t="s">
         <v>64</v>
@@ -14129,7 +14136,7 @@
       </c>
       <c r="E38" s="194"/>
       <c r="F38" s="195" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G38" s="196" t="s">
         <v>65</v>
@@ -14163,7 +14170,7 @@
       </c>
       <c r="E39" s="194"/>
       <c r="F39" s="202" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G39" s="203" t="s">
         <v>66</v>
@@ -14195,7 +14202,7 @@
       </c>
       <c r="E40" s="208"/>
       <c r="F40" s="209" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G40" s="210" t="s">
         <v>66</v>
@@ -14253,7 +14260,7 @@
       </c>
       <c r="E42" s="194"/>
       <c r="F42" s="214" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G42" s="215" t="s">
         <v>157</v>
@@ -14285,7 +14292,7 @@
       </c>
       <c r="E43" s="194"/>
       <c r="F43" s="214" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G43" s="215" t="s">
         <v>157</v>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="339">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -3545,29 +3545,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -3641,6 +3618,36 @@
       <t>カンテン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5841,20 +5848,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="2276475"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1952625" y="2447925"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5872,27 +5879,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5900,27 +5895,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -5936,20 +5919,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1743075" y="1600200"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1952625" y="2428874"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5967,27 +5950,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -5995,27 +5966,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6032,19 +5991,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="1914525"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="1943100"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6062,27 +6021,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6090,27 +6037,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7649,19 +7584,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2333625</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5133975" y="3486150"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4733925" y="4695826"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7679,27 +7614,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7707,27 +7630,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7739,19 +7650,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="12773025"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="13134975"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7769,27 +7680,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7797,27 +7696,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8009,19 +7896,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="4743450"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5829299" y="5410199"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8039,27 +7926,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8067,27 +7942,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8099,19 +7962,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>561975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5695950" y="18135600"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5410200" y="18421350"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8129,27 +7992,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8157,27 +8008,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8189,19 +8028,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:colOff>1066799</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>895350</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="26898600"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5800724" y="26279475"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8219,27 +8058,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8247,27 +8074,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -8548,20 +8363,20 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5705475" y="2571750"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5334000" y="3162300"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8579,27 +8394,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -8607,27 +8410,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -13187,10 +12978,10 @@
         <v>51</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E23" s="106" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
@@ -13211,10 +13002,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="108" t="s">
         <v>330</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>332</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
@@ -13235,10 +13026,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="109" t="s">
         <v>330</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>332</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -13259,7 +13050,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>328</v>
@@ -13283,10 +13074,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
@@ -13307,10 +13098,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E28" s="110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
@@ -13333,10 +13124,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
@@ -13357,10 +13148,10 @@
         <v>57</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E30" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
@@ -13381,10 +13172,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
@@ -13405,10 +13196,10 @@
         <v>59</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E32" s="109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
@@ -13564,7 +13355,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>14</v>
@@ -13791,7 +13582,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G17" s="168" t="s">
         <v>115</v>
@@ -13817,7 +13608,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G18" s="168" t="s">
         <v>118</v>
@@ -13843,7 +13634,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G19" s="168" t="s">
         <v>118</v>
@@ -13869,7 +13660,7 @@
         <v>122</v>
       </c>
       <c r="F20" s="168" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G20" s="168" t="s">
         <v>123</v>
@@ -13895,7 +13686,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G21" s="168" t="s">
         <v>126</v>
@@ -13921,7 +13712,7 @@
         <v>128</v>
       </c>
       <c r="F22" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G22" s="168" t="s">
         <v>126</v>
@@ -14027,7 +13818,7 @@
         <v>139</v>
       </c>
       <c r="F26" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G26" s="168" t="s">
         <v>118</v>
@@ -14053,7 +13844,7 @@
         <v>141</v>
       </c>
       <c r="F27" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G27" s="168" t="s">
         <v>118</v>
@@ -14079,7 +13870,7 @@
         <v>143</v>
       </c>
       <c r="F28" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G28" s="168" t="s">
         <v>144</v>
@@ -14105,7 +13896,7 @@
         <v>146</v>
       </c>
       <c r="F29" s="168" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G29" s="168" t="s">
         <v>144</v>
@@ -14291,7 +14082,7 @@
       </c>
       <c r="E36" s="178"/>
       <c r="F36" s="186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G36" s="180" t="s">
         <v>64</v>
@@ -14317,7 +14108,7 @@
       </c>
       <c r="E37" s="178"/>
       <c r="F37" s="186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G37" s="180" t="s">
         <v>64</v>
@@ -14345,7 +14136,7 @@
       </c>
       <c r="E38" s="194"/>
       <c r="F38" s="195" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G38" s="196" t="s">
         <v>65</v>
@@ -14379,7 +14170,7 @@
       </c>
       <c r="E39" s="194"/>
       <c r="F39" s="202" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G39" s="203" t="s">
         <v>66</v>
@@ -14411,7 +14202,7 @@
       </c>
       <c r="E40" s="208"/>
       <c r="F40" s="209" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G40" s="210" t="s">
         <v>66</v>
@@ -14469,7 +14260,7 @@
       </c>
       <c r="E42" s="194"/>
       <c r="F42" s="214" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G42" s="215" t="s">
         <v>157</v>
@@ -14501,7 +14292,7 @@
       </c>
       <c r="E43" s="194"/>
       <c r="F43" s="214" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G43" s="215" t="s">
         <v>157</v>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_サンプル.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A05D4-649E-4013-B9B2-EE9F0E0F0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B9D6A6-DA3D-4E60-BD1B-FD3E47D865E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="31320" windowHeight="18225" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8003,22 +8003,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>処理済みフラグは未処理として登録されるる。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>全ての項目に値を入力した場合、データが登録される。</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
@@ -9007,6 +8991,22 @@
   </si>
   <si>
     <t>testNormalSubfunction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理済みフラグは未処理として登録される。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10050,74 +10050,35 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10227,6 +10188,72 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10239,38 +10266,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -11670,7 +11670,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>・確認する内容にOR条件は極力使用しない</a:t>
+            <a:t>・確認する内容にOR条件は極力使用しない。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11688,7 +11688,32 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>　条件のどちらか一方で確認内容が充足する場合はその旨を記述し、両方の条件の確認が必要な場合は、ケースを分けて記述する</a:t>
+            <a:t>　条件のどちらか一方で確認内容が充足する場合はその旨を記述し、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>　両方の条件の確認が必要な場合は、ケースを分けて記述する</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13966,12 +13991,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="198">
+      <c r="I25" s="207">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44852</v>
       </c>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="207"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -14527,57 +14552,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="230" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="245" t="s">
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="232" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="227" t="s">
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="254" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="241" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="255"/>
-      <c r="AE1" s="255"/>
-      <c r="AF1" s="256"/>
-      <c r="AG1" s="221">
+      <c r="AD1" s="242"/>
+      <c r="AE1" s="242"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="208">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="223"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="210"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -14585,53 +14610,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="230" t="s">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
-      <c r="AA2" s="227" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="233" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="220" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="235"/>
-      <c r="AG2" s="221">
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="221"/>
+      <c r="AF2" s="222"/>
+      <c r="AG2" s="208">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44852</v>
       </c>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14639,45 +14664,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230" t="s">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="254"/>
-      <c r="AD3" s="255"/>
-      <c r="AE3" s="255"/>
-      <c r="AF3" s="256"/>
-      <c r="AG3" s="221"/>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="223"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
+      <c r="Y3" s="239"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="242"/>
+      <c r="AE3" s="242"/>
+      <c r="AF3" s="243"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="210"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14714,97 +14739,97 @@
       <c r="A7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="224" t="s">
+      <c r="C7" s="212"/>
+      <c r="D7" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="224" t="s">
+      <c r="E7" s="213"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="226"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="224" t="s">
+      <c r="H7" s="213"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="211" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="226"/>
-      <c r="L7" s="226"/>
-      <c r="M7" s="226"/>
-      <c r="N7" s="226"/>
-      <c r="O7" s="226"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="224" t="s">
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="226"/>
-      <c r="S7" s="226"/>
-      <c r="T7" s="226"/>
-      <c r="U7" s="226"/>
-      <c r="V7" s="226"/>
-      <c r="W7" s="226"/>
-      <c r="X7" s="226"/>
-      <c r="Y7" s="226"/>
-      <c r="Z7" s="226"/>
-      <c r="AA7" s="226"/>
-      <c r="AB7" s="226"/>
-      <c r="AC7" s="226"/>
-      <c r="AD7" s="226"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="224" t="s">
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="213"/>
+      <c r="AA7" s="213"/>
+      <c r="AB7" s="213"/>
+      <c r="AC7" s="213"/>
+      <c r="AD7" s="213"/>
+      <c r="AE7" s="212"/>
+      <c r="AF7" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="AG7" s="226"/>
-      <c r="AH7" s="226"/>
-      <c r="AI7" s="225"/>
+      <c r="AG7" s="213"/>
+      <c r="AH7" s="213"/>
+      <c r="AI7" s="212"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214">
+      <c r="C8" s="257"/>
+      <c r="D8" s="258">
         <v>43336</v>
       </c>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="259"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="218" t="s">
+      <c r="H8" s="261"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="262" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="218" t="s">
+      <c r="K8" s="263"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="220"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="264"/>
       <c r="AF8" s="69" t="s">
         <v>85</v>
       </c>
@@ -14816,946 +14841,1101 @@
       <c r="A9" s="68">
         <v>2</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="244" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="200"/>
-      <c r="D9" s="201">
+      <c r="C9" s="245"/>
+      <c r="D9" s="246">
         <v>44852</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="201" t="s">
+      <c r="E9" s="247"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="246" t="s">
         <v>555</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="208" t="s">
+      <c r="H9" s="249"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="250" t="s">
         <v>557</v>
       </c>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208" t="s">
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="250" t="s">
         <v>556</v>
       </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="209"/>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="209"/>
-      <c r="Z9" s="209"/>
-      <c r="AA9" s="209"/>
-      <c r="AB9" s="209"/>
-      <c r="AC9" s="209"/>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="210"/>
-      <c r="AF9" s="205" t="s">
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="254"/>
+      <c r="AF9" s="255" t="s">
         <v>85</v>
       </c>
-      <c r="AG9" s="206"/>
-      <c r="AH9" s="206"/>
-      <c r="AI9" s="207"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="252"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="209"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="209"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="206"/>
-      <c r="AH10" s="206"/>
-      <c r="AI10" s="207"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="253"/>
+      <c r="S10" s="253"/>
+      <c r="T10" s="253"/>
+      <c r="U10" s="253"/>
+      <c r="V10" s="253"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="253"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="253"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="254"/>
+      <c r="AF10" s="255"/>
+      <c r="AG10" s="251"/>
+      <c r="AH10" s="251"/>
+      <c r="AI10" s="252"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="208"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="209"/>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
-      <c r="V11" s="209"/>
-      <c r="W11" s="209"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="209"/>
-      <c r="Z11" s="209"/>
-      <c r="AA11" s="209"/>
-      <c r="AB11" s="209"/>
-      <c r="AC11" s="209"/>
-      <c r="AD11" s="209"/>
-      <c r="AE11" s="210"/>
-      <c r="AF11" s="205"/>
-      <c r="AG11" s="206"/>
-      <c r="AH11" s="206"/>
-      <c r="AI11" s="207"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="252"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="253"/>
+      <c r="S11" s="253"/>
+      <c r="T11" s="253"/>
+      <c r="U11" s="253"/>
+      <c r="V11" s="253"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="254"/>
+      <c r="AF11" s="255"/>
+      <c r="AG11" s="251"/>
+      <c r="AH11" s="251"/>
+      <c r="AI11" s="252"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="206"/>
-      <c r="L12" s="206"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="206"/>
-      <c r="O12" s="206"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="208"/>
-      <c r="R12" s="209"/>
-      <c r="S12" s="209"/>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="209"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="209"/>
-      <c r="AB12" s="209"/>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="209"/>
-      <c r="AE12" s="210"/>
-      <c r="AF12" s="205"/>
-      <c r="AG12" s="206"/>
-      <c r="AH12" s="206"/>
-      <c r="AI12" s="207"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="253"/>
+      <c r="S12" s="253"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="253"/>
+      <c r="V12" s="253"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="254"/>
+      <c r="AF12" s="255"/>
+      <c r="AG12" s="251"/>
+      <c r="AH12" s="251"/>
+      <c r="AI12" s="252"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="209"/>
-      <c r="S13" s="209"/>
-      <c r="T13" s="209"/>
-      <c r="U13" s="209"/>
-      <c r="V13" s="209"/>
-      <c r="W13" s="209"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="209"/>
-      <c r="AB13" s="209"/>
-      <c r="AC13" s="209"/>
-      <c r="AD13" s="209"/>
-      <c r="AE13" s="210"/>
-      <c r="AF13" s="205"/>
-      <c r="AG13" s="206"/>
-      <c r="AH13" s="206"/>
-      <c r="AI13" s="207"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="252"/>
+      <c r="Q13" s="250"/>
+      <c r="R13" s="253"/>
+      <c r="S13" s="253"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="253"/>
+      <c r="V13" s="253"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="254"/>
+      <c r="AF13" s="255"/>
+      <c r="AG13" s="251"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="252"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="208"/>
-      <c r="R14" s="209"/>
-      <c r="S14" s="209"/>
-      <c r="T14" s="209"/>
-      <c r="U14" s="209"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="209"/>
-      <c r="X14" s="209"/>
-      <c r="Y14" s="209"/>
-      <c r="Z14" s="209"/>
-      <c r="AA14" s="209"/>
-      <c r="AB14" s="209"/>
-      <c r="AC14" s="209"/>
-      <c r="AD14" s="209"/>
-      <c r="AE14" s="210"/>
-      <c r="AF14" s="205"/>
-      <c r="AG14" s="206"/>
-      <c r="AH14" s="206"/>
-      <c r="AI14" s="207"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="250"/>
+      <c r="R14" s="253"/>
+      <c r="S14" s="253"/>
+      <c r="T14" s="253"/>
+      <c r="U14" s="253"/>
+      <c r="V14" s="253"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="254"/>
+      <c r="AF14" s="255"/>
+      <c r="AG14" s="251"/>
+      <c r="AH14" s="251"/>
+      <c r="AI14" s="252"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="208"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
-      <c r="AC15" s="209"/>
-      <c r="AD15" s="209"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="205"/>
-      <c r="AG15" s="206"/>
-      <c r="AH15" s="206"/>
-      <c r="AI15" s="207"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="252"/>
+      <c r="Q15" s="250"/>
+      <c r="R15" s="253"/>
+      <c r="S15" s="253"/>
+      <c r="T15" s="253"/>
+      <c r="U15" s="253"/>
+      <c r="V15" s="253"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="254"/>
+      <c r="AF15" s="255"/>
+      <c r="AG15" s="251"/>
+      <c r="AH15" s="251"/>
+      <c r="AI15" s="252"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="208"/>
-      <c r="R16" s="209"/>
-      <c r="S16" s="209"/>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="209"/>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="209"/>
-      <c r="AB16" s="209"/>
-      <c r="AC16" s="209"/>
-      <c r="AD16" s="209"/>
-      <c r="AE16" s="210"/>
-      <c r="AF16" s="205"/>
-      <c r="AG16" s="206"/>
-      <c r="AH16" s="206"/>
-      <c r="AI16" s="207"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="255"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="252"/>
+      <c r="Q16" s="250"/>
+      <c r="R16" s="253"/>
+      <c r="S16" s="253"/>
+      <c r="T16" s="253"/>
+      <c r="U16" s="253"/>
+      <c r="V16" s="253"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="254"/>
+      <c r="AF16" s="255"/>
+      <c r="AG16" s="251"/>
+      <c r="AH16" s="251"/>
+      <c r="AI16" s="252"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="208"/>
-      <c r="R17" s="209"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="209"/>
-      <c r="U17" s="209"/>
-      <c r="V17" s="209"/>
-      <c r="W17" s="209"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="209"/>
-      <c r="Z17" s="209"/>
-      <c r="AA17" s="209"/>
-      <c r="AB17" s="209"/>
-      <c r="AC17" s="209"/>
-      <c r="AD17" s="209"/>
-      <c r="AE17" s="210"/>
-      <c r="AF17" s="205"/>
-      <c r="AG17" s="206"/>
-      <c r="AH17" s="206"/>
-      <c r="AI17" s="207"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="250"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="253"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="254"/>
+      <c r="AF17" s="255"/>
+      <c r="AG17" s="251"/>
+      <c r="AH17" s="251"/>
+      <c r="AI17" s="252"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="208"/>
-      <c r="R18" s="209"/>
-      <c r="S18" s="209"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="209"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="209"/>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="209"/>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="209"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="205"/>
-      <c r="AG18" s="206"/>
-      <c r="AH18" s="206"/>
-      <c r="AI18" s="207"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="254"/>
+      <c r="AF18" s="255"/>
+      <c r="AG18" s="251"/>
+      <c r="AH18" s="251"/>
+      <c r="AI18" s="252"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="207"/>
-      <c r="Q19" s="208"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="209"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="209"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="209"/>
-      <c r="Z19" s="209"/>
-      <c r="AA19" s="209"/>
-      <c r="AB19" s="209"/>
-      <c r="AC19" s="209"/>
-      <c r="AD19" s="209"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="205"/>
-      <c r="AG19" s="206"/>
-      <c r="AH19" s="206"/>
-      <c r="AI19" s="207"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="253"/>
+      <c r="S19" s="253"/>
+      <c r="T19" s="253"/>
+      <c r="U19" s="253"/>
+      <c r="V19" s="253"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="254"/>
+      <c r="AF19" s="255"/>
+      <c r="AG19" s="251"/>
+      <c r="AH19" s="251"/>
+      <c r="AI19" s="252"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="206"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="206"/>
-      <c r="O20" s="206"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="208"/>
-      <c r="R20" s="209"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="209"/>
-      <c r="U20" s="209"/>
-      <c r="V20" s="209"/>
-      <c r="W20" s="209"/>
-      <c r="X20" s="209"/>
-      <c r="Y20" s="209"/>
-      <c r="Z20" s="209"/>
-      <c r="AA20" s="209"/>
-      <c r="AB20" s="209"/>
-      <c r="AC20" s="209"/>
-      <c r="AD20" s="209"/>
-      <c r="AE20" s="210"/>
-      <c r="AF20" s="205"/>
-      <c r="AG20" s="206"/>
-      <c r="AH20" s="206"/>
-      <c r="AI20" s="207"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="250"/>
+      <c r="R20" s="253"/>
+      <c r="S20" s="253"/>
+      <c r="T20" s="253"/>
+      <c r="U20" s="253"/>
+      <c r="V20" s="253"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="254"/>
+      <c r="AF20" s="255"/>
+      <c r="AG20" s="251"/>
+      <c r="AH20" s="251"/>
+      <c r="AI20" s="252"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="206"/>
-      <c r="O21" s="206"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="209"/>
-      <c r="S21" s="209"/>
-      <c r="T21" s="209"/>
-      <c r="U21" s="209"/>
-      <c r="V21" s="209"/>
-      <c r="W21" s="209"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="209"/>
-      <c r="Z21" s="209"/>
-      <c r="AA21" s="209"/>
-      <c r="AB21" s="209"/>
-      <c r="AC21" s="209"/>
-      <c r="AD21" s="209"/>
-      <c r="AE21" s="210"/>
-      <c r="AF21" s="205"/>
-      <c r="AG21" s="206"/>
-      <c r="AH21" s="206"/>
-      <c r="AI21" s="207"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="245"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="252"/>
+      <c r="Q21" s="250"/>
+      <c r="R21" s="253"/>
+      <c r="S21" s="253"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="253"/>
+      <c r="V21" s="253"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="254"/>
+      <c r="AF21" s="255"/>
+      <c r="AG21" s="251"/>
+      <c r="AH21" s="251"/>
+      <c r="AI21" s="252"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="206"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="209"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="209"/>
-      <c r="U22" s="209"/>
-      <c r="V22" s="209"/>
-      <c r="W22" s="209"/>
-      <c r="X22" s="209"/>
-      <c r="Y22" s="209"/>
-      <c r="Z22" s="209"/>
-      <c r="AA22" s="209"/>
-      <c r="AB22" s="209"/>
-      <c r="AC22" s="209"/>
-      <c r="AD22" s="209"/>
-      <c r="AE22" s="210"/>
-      <c r="AF22" s="205"/>
-      <c r="AG22" s="206"/>
-      <c r="AH22" s="206"/>
-      <c r="AI22" s="207"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="251"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="253"/>
+      <c r="S22" s="253"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="253"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="254"/>
+      <c r="AF22" s="255"/>
+      <c r="AG22" s="251"/>
+      <c r="AH22" s="251"/>
+      <c r="AI22" s="252"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="206"/>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
-      <c r="N23" s="206"/>
-      <c r="O23" s="206"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="208"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="209"/>
-      <c r="V23" s="209"/>
-      <c r="W23" s="209"/>
-      <c r="X23" s="209"/>
-      <c r="Y23" s="209"/>
-      <c r="Z23" s="209"/>
-      <c r="AA23" s="209"/>
-      <c r="AB23" s="209"/>
-      <c r="AC23" s="209"/>
-      <c r="AD23" s="209"/>
-      <c r="AE23" s="210"/>
-      <c r="AF23" s="205"/>
-      <c r="AG23" s="206"/>
-      <c r="AH23" s="206"/>
-      <c r="AI23" s="207"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="254"/>
+      <c r="AF23" s="255"/>
+      <c r="AG23" s="251"/>
+      <c r="AH23" s="251"/>
+      <c r="AI23" s="252"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="208"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="209"/>
-      <c r="V24" s="209"/>
-      <c r="W24" s="209"/>
-      <c r="X24" s="209"/>
-      <c r="Y24" s="209"/>
-      <c r="Z24" s="209"/>
-      <c r="AA24" s="209"/>
-      <c r="AB24" s="209"/>
-      <c r="AC24" s="209"/>
-      <c r="AD24" s="209"/>
-      <c r="AE24" s="210"/>
-      <c r="AF24" s="205"/>
-      <c r="AG24" s="206"/>
-      <c r="AH24" s="206"/>
-      <c r="AI24" s="207"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="250"/>
+      <c r="R24" s="253"/>
+      <c r="S24" s="253"/>
+      <c r="T24" s="253"/>
+      <c r="U24" s="253"/>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="254"/>
+      <c r="AF24" s="255"/>
+      <c r="AG24" s="251"/>
+      <c r="AH24" s="251"/>
+      <c r="AI24" s="252"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="206"/>
-      <c r="O25" s="206"/>
-      <c r="P25" s="207"/>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="209"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
-      <c r="U25" s="209"/>
-      <c r="V25" s="209"/>
-      <c r="W25" s="209"/>
-      <c r="X25" s="209"/>
-      <c r="Y25" s="209"/>
-      <c r="Z25" s="209"/>
-      <c r="AA25" s="209"/>
-      <c r="AB25" s="209"/>
-      <c r="AC25" s="209"/>
-      <c r="AD25" s="209"/>
-      <c r="AE25" s="210"/>
-      <c r="AF25" s="205"/>
-      <c r="AG25" s="206"/>
-      <c r="AH25" s="206"/>
-      <c r="AI25" s="207"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="245"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="250"/>
+      <c r="R25" s="253"/>
+      <c r="S25" s="253"/>
+      <c r="T25" s="253"/>
+      <c r="U25" s="253"/>
+      <c r="V25" s="253"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="254"/>
+      <c r="AF25" s="255"/>
+      <c r="AG25" s="251"/>
+      <c r="AH25" s="251"/>
+      <c r="AI25" s="252"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="206"/>
-      <c r="L26" s="206"/>
-      <c r="M26" s="206"/>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
-      <c r="P26" s="207"/>
-      <c r="Q26" s="208"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="209"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="209"/>
-      <c r="W26" s="209"/>
-      <c r="X26" s="209"/>
-      <c r="Y26" s="209"/>
-      <c r="Z26" s="209"/>
-      <c r="AA26" s="209"/>
-      <c r="AB26" s="209"/>
-      <c r="AC26" s="209"/>
-      <c r="AD26" s="209"/>
-      <c r="AE26" s="210"/>
-      <c r="AF26" s="205"/>
-      <c r="AG26" s="206"/>
-      <c r="AH26" s="206"/>
-      <c r="AI26" s="207"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="245"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="251"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="251"/>
+      <c r="P26" s="252"/>
+      <c r="Q26" s="250"/>
+      <c r="R26" s="253"/>
+      <c r="S26" s="253"/>
+      <c r="T26" s="253"/>
+      <c r="U26" s="253"/>
+      <c r="V26" s="253"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="254"/>
+      <c r="AF26" s="255"/>
+      <c r="AG26" s="251"/>
+      <c r="AH26" s="251"/>
+      <c r="AI26" s="252"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="208"/>
-      <c r="R27" s="209"/>
-      <c r="S27" s="209"/>
-      <c r="T27" s="209"/>
-      <c r="U27" s="209"/>
-      <c r="V27" s="209"/>
-      <c r="W27" s="209"/>
-      <c r="X27" s="209"/>
-      <c r="Y27" s="209"/>
-      <c r="Z27" s="209"/>
-      <c r="AA27" s="209"/>
-      <c r="AB27" s="209"/>
-      <c r="AC27" s="209"/>
-      <c r="AD27" s="209"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="205"/>
-      <c r="AG27" s="206"/>
-      <c r="AH27" s="206"/>
-      <c r="AI27" s="207"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="251"/>
+      <c r="M27" s="251"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="250"/>
+      <c r="R27" s="253"/>
+      <c r="S27" s="253"/>
+      <c r="T27" s="253"/>
+      <c r="U27" s="253"/>
+      <c r="V27" s="253"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="254"/>
+      <c r="AF27" s="255"/>
+      <c r="AG27" s="251"/>
+      <c r="AH27" s="251"/>
+      <c r="AI27" s="252"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="206"/>
-      <c r="O28" s="206"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="209"/>
-      <c r="V28" s="209"/>
-      <c r="W28" s="209"/>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="209"/>
-      <c r="Z28" s="209"/>
-      <c r="AA28" s="209"/>
-      <c r="AB28" s="209"/>
-      <c r="AC28" s="209"/>
-      <c r="AD28" s="209"/>
-      <c r="AE28" s="210"/>
-      <c r="AF28" s="205"/>
-      <c r="AG28" s="206"/>
-      <c r="AH28" s="206"/>
-      <c r="AI28" s="207"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="245"/>
+      <c r="J28" s="255"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="251"/>
+      <c r="N28" s="251"/>
+      <c r="O28" s="251"/>
+      <c r="P28" s="252"/>
+      <c r="Q28" s="250"/>
+      <c r="R28" s="253"/>
+      <c r="S28" s="253"/>
+      <c r="T28" s="253"/>
+      <c r="U28" s="253"/>
+      <c r="V28" s="253"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="254"/>
+      <c r="AF28" s="255"/>
+      <c r="AG28" s="251"/>
+      <c r="AH28" s="251"/>
+      <c r="AI28" s="252"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="206"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="208"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
-      <c r="U29" s="209"/>
-      <c r="V29" s="209"/>
-      <c r="W29" s="209"/>
-      <c r="X29" s="209"/>
-      <c r="Y29" s="209"/>
-      <c r="Z29" s="209"/>
-      <c r="AA29" s="209"/>
-      <c r="AB29" s="209"/>
-      <c r="AC29" s="209"/>
-      <c r="AD29" s="209"/>
-      <c r="AE29" s="210"/>
-      <c r="AF29" s="205"/>
-      <c r="AG29" s="206"/>
-      <c r="AH29" s="206"/>
-      <c r="AI29" s="207"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="251"/>
+      <c r="M29" s="251"/>
+      <c r="N29" s="251"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="252"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="253"/>
+      <c r="S29" s="253"/>
+      <c r="T29" s="253"/>
+      <c r="U29" s="253"/>
+      <c r="V29" s="253"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="254"/>
+      <c r="AF29" s="255"/>
+      <c r="AG29" s="251"/>
+      <c r="AH29" s="251"/>
+      <c r="AI29" s="252"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="206"/>
-      <c r="L30" s="206"/>
-      <c r="M30" s="206"/>
-      <c r="N30" s="206"/>
-      <c r="O30" s="206"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="209"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="209"/>
-      <c r="V30" s="209"/>
-      <c r="W30" s="209"/>
-      <c r="X30" s="209"/>
-      <c r="Y30" s="209"/>
-      <c r="Z30" s="209"/>
-      <c r="AA30" s="209"/>
-      <c r="AB30" s="209"/>
-      <c r="AC30" s="209"/>
-      <c r="AD30" s="209"/>
-      <c r="AE30" s="210"/>
-      <c r="AF30" s="205"/>
-      <c r="AG30" s="206"/>
-      <c r="AH30" s="206"/>
-      <c r="AI30" s="207"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="248"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="251"/>
+      <c r="M30" s="251"/>
+      <c r="N30" s="251"/>
+      <c r="O30" s="251"/>
+      <c r="P30" s="252"/>
+      <c r="Q30" s="250"/>
+      <c r="R30" s="253"/>
+      <c r="S30" s="253"/>
+      <c r="T30" s="253"/>
+      <c r="U30" s="253"/>
+      <c r="V30" s="253"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="254"/>
+      <c r="AF30" s="255"/>
+      <c r="AG30" s="251"/>
+      <c r="AH30" s="251"/>
+      <c r="AI30" s="252"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="206"/>
-      <c r="L31" s="206"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="206"/>
-      <c r="O31" s="206"/>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
-      <c r="U31" s="209"/>
-      <c r="V31" s="209"/>
-      <c r="W31" s="209"/>
-      <c r="X31" s="209"/>
-      <c r="Y31" s="209"/>
-      <c r="Z31" s="209"/>
-      <c r="AA31" s="209"/>
-      <c r="AB31" s="209"/>
-      <c r="AC31" s="209"/>
-      <c r="AD31" s="209"/>
-      <c r="AE31" s="210"/>
-      <c r="AF31" s="205"/>
-      <c r="AG31" s="206"/>
-      <c r="AH31" s="206"/>
-      <c r="AI31" s="207"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="251"/>
+      <c r="M31" s="251"/>
+      <c r="N31" s="251"/>
+      <c r="O31" s="251"/>
+      <c r="P31" s="252"/>
+      <c r="Q31" s="250"/>
+      <c r="R31" s="253"/>
+      <c r="S31" s="253"/>
+      <c r="T31" s="253"/>
+      <c r="U31" s="253"/>
+      <c r="V31" s="253"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="254"/>
+      <c r="AF31" s="255"/>
+      <c r="AG31" s="251"/>
+      <c r="AH31" s="251"/>
+      <c r="AI31" s="252"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="207"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="209"/>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="209"/>
-      <c r="X32" s="209"/>
-      <c r="Y32" s="209"/>
-      <c r="Z32" s="209"/>
-      <c r="AA32" s="209"/>
-      <c r="AB32" s="209"/>
-      <c r="AC32" s="209"/>
-      <c r="AD32" s="209"/>
-      <c r="AE32" s="210"/>
-      <c r="AF32" s="205"/>
-      <c r="AG32" s="206"/>
-      <c r="AH32" s="206"/>
-      <c r="AI32" s="207"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="245"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="265"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="251"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="252"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="253"/>
+      <c r="S32" s="253"/>
+      <c r="T32" s="253"/>
+      <c r="U32" s="253"/>
+      <c r="V32" s="253"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="254"/>
+      <c r="AF32" s="255"/>
+      <c r="AG32" s="251"/>
+      <c r="AH32" s="251"/>
+      <c r="AI32" s="252"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="199"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="206"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="208"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
-      <c r="U33" s="209"/>
-      <c r="V33" s="209"/>
-      <c r="W33" s="209"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="209"/>
-      <c r="AE33" s="210"/>
-      <c r="AF33" s="205"/>
-      <c r="AG33" s="206"/>
-      <c r="AH33" s="206"/>
-      <c r="AI33" s="207"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="248"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="251"/>
+      <c r="M33" s="251"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="251"/>
+      <c r="P33" s="252"/>
+      <c r="Q33" s="250"/>
+      <c r="R33" s="253"/>
+      <c r="S33" s="253"/>
+      <c r="T33" s="253"/>
+      <c r="U33" s="253"/>
+      <c r="V33" s="253"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="254"/>
+      <c r="AF33" s="255"/>
+      <c r="AG33" s="251"/>
+      <c r="AH33" s="251"/>
+      <c r="AI33" s="252"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15779,161 +15959,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -16091,164 +16116,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="230" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="245" t="str">
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（バッチ）)
 サンプル取引/BXXXXXXX</v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="227" t="s">
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="254" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="255"/>
-      <c r="AE1" s="255"/>
-      <c r="AF1" s="256"/>
-      <c r="AG1" s="257">
+      <c r="AD1" s="242"/>
+      <c r="AE1" s="242"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="266">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="258"/>
-      <c r="AI1" s="259"/>
+      <c r="AH1" s="267"/>
+      <c r="AI1" s="268"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="230" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
-      <c r="AA2" s="227" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="254" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="255"/>
-      <c r="AE2" s="255"/>
-      <c r="AF2" s="256"/>
-      <c r="AG2" s="257">
+      <c r="AD2" s="242"/>
+      <c r="AE2" s="242"/>
+      <c r="AF2" s="243"/>
+      <c r="AG2" s="266">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44852</v>
       </c>
-      <c r="AH2" s="258"/>
-      <c r="AI2" s="259"/>
+      <c r="AH2" s="267"/>
+      <c r="AI2" s="268"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230" t="str">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="254" t="str">
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
+      <c r="Y3" s="239"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="255"/>
-      <c r="AE3" s="255"/>
-      <c r="AF3" s="256"/>
-      <c r="AG3" s="257" t="str">
+      <c r="AD3" s="242"/>
+      <c r="AE3" s="242"/>
+      <c r="AF3" s="243"/>
+      <c r="AG3" s="266" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="258"/>
-      <c r="AI3" s="259"/>
+      <c r="AH3" s="267"/>
+      <c r="AI3" s="268"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -17717,14 +17742,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17734,6 +17751,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -19033,10 +19058,10 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="262" t="s">
+      <c r="B42" s="198" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="263" t="s">
+      <c r="C42" s="199" t="s">
         <v>154</v>
       </c>
       <c r="D42" s="127" t="s">
@@ -19664,10 +19689,10 @@
         <v>561</v>
       </c>
       <c r="I59" s="158" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J59" s="197" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K59" s="159" t="s">
         <v>594</v>
@@ -19854,7 +19879,7 @@
         <v>562</v>
       </c>
       <c r="J64" s="81" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="K64" s="159" t="s">
         <v>564</v>
@@ -19896,10 +19921,10 @@
         <v>561</v>
       </c>
       <c r="I65" s="158" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J65" s="81" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K65" s="159" t="s">
         <v>55</v>
@@ -19942,7 +19967,7 @@
         <v>563</v>
       </c>
       <c r="J66" s="81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K66" s="159" t="s">
         <v>56</v>
@@ -20196,13 +20221,13 @@
         <v>546</v>
       </c>
       <c r="I73" s="160" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J73" s="81" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K73" s="159" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L73" s="154" t="s">
         <v>54</v>
@@ -20238,10 +20263,10 @@
       <c r="H74" s="165"/>
       <c r="I74" s="165"/>
       <c r="J74" s="81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K74" s="159" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L74" s="154" t="s">
         <v>54</v>
@@ -20277,10 +20302,10 @@
       <c r="H75" s="165"/>
       <c r="I75" s="165"/>
       <c r="J75" s="81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K75" s="159" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L75" s="154" t="s">
         <v>54</v>
@@ -20316,10 +20341,10 @@
       <c r="H76" s="165"/>
       <c r="I76" s="165"/>
       <c r="J76" s="81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K76" s="159" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L76" s="154" t="s">
         <v>54</v>
@@ -20355,10 +20380,10 @@
       <c r="H77" s="167"/>
       <c r="I77" s="167"/>
       <c r="J77" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K77" s="159" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L77" s="154" t="s">
         <v>54</v>
@@ -20399,13 +20424,13 @@
         <v>546</v>
       </c>
       <c r="I78" s="160" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J78" s="81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K78" s="159" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L78" s="154" t="s">
         <v>54</v>
@@ -20441,10 +20466,10 @@
       <c r="H79" s="165"/>
       <c r="I79" s="165"/>
       <c r="J79" s="81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K79" s="159" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L79" s="154" t="s">
         <v>54</v>
@@ -20480,10 +20505,10 @@
       <c r="H80" s="165"/>
       <c r="I80" s="165"/>
       <c r="J80" s="81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K80" s="159" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L80" s="154" t="s">
         <v>54</v>
@@ -20519,10 +20544,10 @@
       <c r="H81" s="165"/>
       <c r="I81" s="165"/>
       <c r="J81" s="81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K81" s="159" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L81" s="154" t="s">
         <v>54</v>
@@ -20558,10 +20583,10 @@
       <c r="H82" s="167"/>
       <c r="I82" s="167"/>
       <c r="J82" s="81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K82" s="159" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L82" s="154" t="s">
         <v>54</v>
@@ -20694,7 +20719,7 @@
         <v>23-5-1</v>
       </c>
       <c r="B86" s="171"/>
-      <c r="C86" s="264"/>
+      <c r="C86" s="200"/>
       <c r="D86" s="167"/>
       <c r="E86" s="167"/>
       <c r="F86" s="111" t="s">
@@ -21005,13 +21030,13 @@
         <v>567</v>
       </c>
       <c r="I94" s="158" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J94" s="81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K94" s="155" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L94" s="154" t="s">
         <v>560</v>
@@ -21052,13 +21077,13 @@
         <v>567</v>
       </c>
       <c r="I95" s="158" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J95" s="81" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K95" s="155" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L95" s="154" t="s">
         <v>560</v>
@@ -21086,7 +21111,7 @@
         <v>31-1-1</v>
       </c>
       <c r="B96" s="164"/>
-      <c r="C96" s="265"/>
+      <c r="C96" s="201"/>
       <c r="D96" s="167"/>
       <c r="E96" s="114" t="s">
         <v>219</v>
@@ -22018,7 +22043,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B121" s="260" t="s">
+      <c r="B121" s="269" t="s">
         <v>256</v>
       </c>
       <c r="C121" s="116"/>
@@ -22055,7 +22080,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B122" s="260"/>
+      <c r="B122" s="269"/>
       <c r="C122" s="116"/>
       <c r="D122" s="104"/>
       <c r="E122" s="140"/>
@@ -22746,7 +22771,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B141" s="260" t="s">
+      <c r="B141" s="269" t="s">
         <v>284</v>
       </c>
       <c r="C141" s="116"/>
@@ -22783,7 +22808,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B142" s="260"/>
+      <c r="B142" s="269"/>
       <c r="C142" s="116"/>
       <c r="D142" s="104"/>
       <c r="E142" s="104"/>
@@ -32520,7 +32545,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="266" t="s">
+      <c r="B112" s="270" t="s">
         <v>493</v>
       </c>
       <c r="C112" s="157"/>
@@ -32557,7 +32582,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="266"/>
+      <c r="B113" s="270"/>
       <c r="C113" s="157"/>
       <c r="D113" s="163"/>
       <c r="E113" s="185"/>
@@ -32644,10 +32669,10 @@
         <v>563</v>
       </c>
       <c r="J115" s="154" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K115" s="154" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L115" s="155" t="s">
         <v>53</v>
@@ -32831,7 +32856,7 @@
         <v>563</v>
       </c>
       <c r="J120" s="154" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K120" s="154" t="s">
         <v>32</v>
@@ -32876,7 +32901,7 @@
         <v>563</v>
       </c>
       <c r="J121" s="154" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K121" s="154" t="s">
         <v>31</v>
@@ -32921,7 +32946,7 @@
         <v>563</v>
       </c>
       <c r="J122" s="154" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K122" s="154" t="s">
         <v>33</v>
@@ -32966,7 +32991,7 @@
         <v>563</v>
       </c>
       <c r="J123" s="154" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K123" s="154" t="s">
         <v>31</v>
@@ -33011,7 +33036,7 @@
         <v>563</v>
       </c>
       <c r="J124" s="154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K124" s="154" t="s">
         <v>32</v>
@@ -33079,7 +33104,7 @@
         <v>47-1-1</v>
       </c>
       <c r="B126" s="163"/>
-      <c r="C126" s="267"/>
+      <c r="C126" s="202"/>
       <c r="D126" s="183" t="s">
         <v>490</v>
       </c>
@@ -33138,7 +33163,7 @@
         <v>563</v>
       </c>
       <c r="J127" s="154" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K127" s="154" t="s">
         <v>44</v>
@@ -33181,7 +33206,7 @@
         <v>563</v>
       </c>
       <c r="J128" s="154" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K128" s="154" t="s">
         <v>44</v>
@@ -33224,7 +33249,7 @@
         <v>563</v>
       </c>
       <c r="J129" s="154" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K129" s="154" t="s">
         <v>45</v>
@@ -33267,7 +33292,7 @@
         <v>563</v>
       </c>
       <c r="J130" s="154" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K130" s="154" t="s">
         <v>45</v>
@@ -33310,7 +33335,7 @@
         <v>563</v>
       </c>
       <c r="J131" s="154" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K131" s="154" t="s">
         <v>46</v>
@@ -33353,7 +33378,7 @@
         <v>563</v>
       </c>
       <c r="J132" s="154" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K132" s="154" t="s">
         <v>47</v>
@@ -33396,7 +33421,7 @@
         <v>563</v>
       </c>
       <c r="J133" s="154" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K133" s="154" t="s">
         <v>48</v>
@@ -33439,7 +33464,7 @@
         <v>563</v>
       </c>
       <c r="J134" s="154" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K134" s="154" t="s">
         <v>48</v>
@@ -33619,7 +33644,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B139" s="261" t="s">
+      <c r="B139" s="271" t="s">
         <v>284</v>
       </c>
       <c r="C139" s="181"/>
@@ -33656,7 +33681,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B140" s="261"/>
+      <c r="B140" s="271"/>
       <c r="C140" s="181"/>
       <c r="D140" s="182"/>
       <c r="E140" s="181"/>
@@ -39551,10 +39576,10 @@
         <v>546</v>
       </c>
       <c r="I303" s="92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J303" s="92" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K303" s="92" t="s">
         <v>547</v>
@@ -39596,10 +39621,10 @@
         <v>546</v>
       </c>
       <c r="I304" s="92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J304" s="92" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K304" s="92" t="s">
         <v>547</v>
@@ -39641,10 +39666,10 @@
         <v>546</v>
       </c>
       <c r="I305" s="92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J305" s="92" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K305" s="92" t="s">
         <v>547</v>
@@ -39686,10 +39711,10 @@
         <v>546</v>
       </c>
       <c r="I306" s="92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J306" s="92" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K306" s="94" t="s">
         <v>548</v>
@@ -39736,13 +39761,13 @@
         <v>21</v>
       </c>
       <c r="J307" s="92" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K307" s="92" t="s">
         <v>35</v>
       </c>
       <c r="L307" s="92" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M307" s="92"/>
       <c r="N307" s="92"/>
@@ -39764,9 +39789,9 @@
 )</f>
         <v>103-1-1</v>
       </c>
-      <c r="B308" s="268"/>
-      <c r="C308" s="268"/>
-      <c r="D308" s="269"/>
+      <c r="B308" s="203"/>
+      <c r="C308" s="203"/>
+      <c r="D308" s="204"/>
       <c r="E308" s="122" t="s">
         <v>519</v>
       </c>
@@ -39801,9 +39826,9 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B309" s="268"/>
-      <c r="C309" s="268"/>
-      <c r="D309" s="269"/>
+      <c r="B309" s="203"/>
+      <c r="C309" s="203"/>
+      <c r="D309" s="204"/>
       <c r="E309" s="122" t="s">
         <v>521</v>
       </c>
@@ -39838,9 +39863,9 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B310" s="268"/>
-      <c r="C310" s="268"/>
-      <c r="D310" s="270"/>
+      <c r="B310" s="203"/>
+      <c r="C310" s="203"/>
+      <c r="D310" s="205"/>
       <c r="E310" s="122" t="s">
         <v>523</v>
       </c>
@@ -39891,10 +39916,10 @@
         <v>580</v>
       </c>
       <c r="I311" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J311" s="92" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K311" s="92" t="s">
         <v>582</v>
@@ -39936,10 +39961,10 @@
         <v>19</v>
       </c>
       <c r="I312" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J312" s="92" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K312" s="92" t="s">
         <v>37</v>
@@ -39979,10 +40004,10 @@
         <v>19</v>
       </c>
       <c r="I313" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J313" s="92" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K313" s="92" t="s">
         <v>38</v>
@@ -40022,10 +40047,10 @@
         <v>19</v>
       </c>
       <c r="I314" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J314" s="92" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K314" s="92" t="s">
         <v>39</v>
@@ -40065,10 +40090,10 @@
         <v>19</v>
       </c>
       <c r="I315" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J315" s="92" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K315" s="92" t="s">
         <v>40</v>
@@ -40098,10 +40123,10 @@
 )</f>
         <v>106-3-1</v>
       </c>
-      <c r="B316" s="268"/>
-      <c r="C316" s="268"/>
-      <c r="D316" s="270"/>
-      <c r="E316" s="270"/>
+      <c r="B316" s="203"/>
+      <c r="C316" s="203"/>
+      <c r="D316" s="205"/>
+      <c r="E316" s="205"/>
       <c r="F316" s="122" t="s">
         <v>528</v>
       </c>
@@ -40152,7 +40177,7 @@
         <v>563</v>
       </c>
       <c r="J317" s="92" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K317" s="92" t="s">
         <v>583</v>
@@ -40182,10 +40207,10 @@
 )</f>
         <v>107-2-1</v>
       </c>
-      <c r="B318" s="268"/>
-      <c r="C318" s="268"/>
-      <c r="D318" s="269"/>
-      <c r="E318" s="269"/>
+      <c r="B318" s="203"/>
+      <c r="C318" s="203"/>
+      <c r="D318" s="204"/>
+      <c r="E318" s="204"/>
       <c r="F318" s="122" t="s">
         <v>531</v>
       </c>
@@ -40232,7 +40257,7 @@
         <v>563</v>
       </c>
       <c r="J319" s="92" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K319" s="92" t="s">
         <v>584</v>
@@ -40278,10 +40303,10 @@
         <v>19</v>
       </c>
       <c r="I320" s="92" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J320" s="92" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K320" s="92" t="s">
         <v>50</v>
@@ -40311,10 +40336,10 @@
 )</f>
         <v>108-2-1</v>
       </c>
-      <c r="B321" s="268"/>
-      <c r="C321" s="268"/>
-      <c r="D321" s="269"/>
-      <c r="E321" s="269"/>
+      <c r="B321" s="203"/>
+      <c r="C321" s="203"/>
+      <c r="D321" s="204"/>
+      <c r="E321" s="204"/>
       <c r="F321" s="122" t="s">
         <v>534</v>
       </c>
@@ -40346,10 +40371,10 @@
 )</f>
         <v>108-3-1</v>
       </c>
-      <c r="B322" s="268"/>
-      <c r="C322" s="268"/>
-      <c r="D322" s="269"/>
-      <c r="E322" s="269"/>
+      <c r="B322" s="203"/>
+      <c r="C322" s="203"/>
+      <c r="D322" s="204"/>
+      <c r="E322" s="204"/>
       <c r="F322" s="122" t="s">
         <v>535</v>
       </c>
@@ -40381,10 +40406,10 @@
 )</f>
         <v>108-4-1</v>
       </c>
-      <c r="B323" s="268"/>
-      <c r="C323" s="268"/>
-      <c r="D323" s="269"/>
-      <c r="E323" s="269"/>
+      <c r="B323" s="203"/>
+      <c r="C323" s="203"/>
+      <c r="D323" s="204"/>
+      <c r="E323" s="204"/>
       <c r="F323" s="122" t="s">
         <v>536</v>
       </c>
@@ -40416,10 +40441,10 @@
 )</f>
         <v>108-5-1</v>
       </c>
-      <c r="B324" s="268"/>
-      <c r="C324" s="268"/>
-      <c r="D324" s="269"/>
-      <c r="E324" s="269"/>
+      <c r="B324" s="203"/>
+      <c r="C324" s="203"/>
+      <c r="D324" s="204"/>
+      <c r="E324" s="204"/>
       <c r="F324" s="122" t="s">
         <v>537</v>
       </c>
@@ -40451,10 +40476,10 @@
 )</f>
         <v>108-6-1</v>
       </c>
-      <c r="B325" s="268"/>
-      <c r="C325" s="268"/>
-      <c r="D325" s="269"/>
-      <c r="E325" s="269"/>
+      <c r="B325" s="203"/>
+      <c r="C325" s="203"/>
+      <c r="D325" s="204"/>
+      <c r="E325" s="204"/>
       <c r="F325" s="122" t="s">
         <v>538</v>
       </c>
@@ -40486,10 +40511,10 @@
 )</f>
         <v>108-7-1</v>
       </c>
-      <c r="B326" s="268"/>
-      <c r="C326" s="268"/>
-      <c r="D326" s="269"/>
-      <c r="E326" s="269"/>
+      <c r="B326" s="203"/>
+      <c r="C326" s="203"/>
+      <c r="D326" s="204"/>
+      <c r="E326" s="204"/>
       <c r="F326" s="122" t="s">
         <v>539</v>
       </c>
@@ -40521,10 +40546,10 @@
 )</f>
         <v>108-8-1</v>
       </c>
-      <c r="B327" s="271"/>
-      <c r="C327" s="271"/>
-      <c r="D327" s="270"/>
-      <c r="E327" s="270"/>
+      <c r="B327" s="206"/>
+      <c r="C327" s="206"/>
+      <c r="D327" s="205"/>
+      <c r="E327" s="205"/>
       <c r="F327" s="122" t="s">
         <v>540</v>
       </c>
@@ -40579,7 +40604,7 @@
         <v>550</v>
       </c>
       <c r="J328" s="92" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K328" s="94" t="s">
         <v>551</v>
@@ -40822,7 +40847,7 @@
         <v>57</v>
       </c>
       <c r="J11" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K11" s="85">
         <v>1</v>
@@ -40835,7 +40860,7 @@
     </row>
     <row r="12" spans="1:16" s="79" customFormat="1" ht="45">
       <c r="A12" s="82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
@@ -40850,7 +40875,7 @@
         <v>58</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K12" s="85">
         <v>2</v>
@@ -40897,7 +40922,7 @@
     </row>
     <row r="14" spans="1:16" s="79" customFormat="1" ht="90">
       <c r="A14" s="82" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -40925,7 +40950,7 @@
     </row>
     <row r="15" spans="1:16" s="79" customFormat="1" ht="67.5">
       <c r="A15" s="82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
